--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC5407-E140-4856-8E70-775EEC1A1CA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B8DFC-C169-4F46-B5DC-B9C41A7E76AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Liczba</t>
+  </si>
+  <si>
+    <t>Zapoznał się z kartą przedmiotu?</t>
   </si>
 </sst>
 </file>
@@ -127,9 +130,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,13 +304,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,13 +1071,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
@@ -1103,13 +1109,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E13" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr Indeksu" dataCellStyle="Normalny"/>
+    <tableColumn id="8" xr3:uid="{284AF33C-C2AF-4330-9C00-DE8A9CCAA5B6}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lab 1" dataCellStyle="Normalny"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Lab 1]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="%" dataDxfId="1" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/$C$15</calculatedColumnFormula>
@@ -1432,277 +1439,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="3" max="4" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
+      <c r="D3" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>160054</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>160848</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>160849</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>160850</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>160054</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>160851</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="E8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>160848</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>160869</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>160849</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>160850</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="D9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>160851</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>160869</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>155309</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>155309</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>3.5</v>
       </c>
-      <c r="C12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>3.5</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>0.7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
       <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
         <v>5</v>
       </c>
-      <c r="C13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Lab 1]])</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1710,13 +1756,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1733,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
@@ -1742,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.5</v>
       </c>
@@ -1751,16 +1798,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4.5</v>
       </c>
@@ -1769,13 +1816,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B8DFC-C169-4F46-B5DC-B9C41A7E76AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E533A4-0BB6-46D3-92BB-CEB9230E651E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Zapoznał się z kartą przedmiotu?</t>
+  </si>
+  <si>
+    <t>Lab 2 Hard</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Lab 2.1</t>
+  </si>
+  <si>
+    <t>Lab 2.2</t>
+  </si>
+  <si>
+    <t>Lab 2.3</t>
   </si>
 </sst>
 </file>
@@ -130,12 +145,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,7 +167,7 @@
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -157,6 +176,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,6 +286,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liczba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -263,7 +309,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$B$25</c:f>
+              <c:f>Sheet2!$B$21:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -290,12 +336,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$20:$C$25</c:f>
+              <c:f>Sheet2!$C$21:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -304,13 +350,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,15 +1117,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1109,17 +1155,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="8" xr3:uid="{284AF33C-C2AF-4330-9C00-DE8A9CCAA5B6}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lab 1" dataCellStyle="Normalny"/>
+    <tableColumn id="10" xr3:uid="{AD10876E-886C-4586-8EEE-D7393C3563ED}" name="Lab 2.1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{57C77962-C958-4FBA-888C-3838BCA53BB6}" name="Lab 2.2"/>
+    <tableColumn id="3" xr3:uid="{C1C56CB6-0705-46FD-8E8C-487D05C5B757}" name="Lab 2.3"/>
+    <tableColumn id="9" xr3:uid="{6D6C8813-70CE-43A8-84DD-01B68E3F59B0}" name="Lab 2 Hard" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="%" dataDxfId="1" dataCellStyle="Normalny">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/$C$15</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/$C$16</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{75913F9A-0D6D-4A08-8ED7-29E0EE314F55}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
@@ -1130,12 +1180,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73B83BD-55CB-46C3-906F-D3EBF01A9E45}" name="Tabela4" displayName="Tabela4" ref="B19:C25" totalsRowShown="0">
-  <autoFilter ref="B19:C25" xr:uid="{BD7E25C7-B0F2-4B26-8646-4C1FAE4B26ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73B83BD-55CB-46C3-906F-D3EBF01A9E45}" name="Tabela4" displayName="Tabela4" ref="B20:C26" totalsRowShown="0">
+  <autoFilter ref="B20:C26" xr:uid="{BD7E25C7-B0F2-4B26-8646-4C1FAE4B26ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39619886-554B-4148-A5A2-124DA877A202}" name="Ocena"/>
     <tableColumn id="2" xr3:uid="{2EA8AC2B-9862-4BD1-8651-15499823A6DC}" name="Liczba">
-      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B20)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1439,20 +1489,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
-    <col min="3" max="4" width="22.09765625" customWidth="1"/>
+    <col min="3" max="5" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,16 +1513,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -1482,20 +1544,30 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2">
+        <v>0.33</v>
+      </c>
+      <c r="E2">
+        <v>2.25</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>6.58</v>
+      </c>
+      <c r="I2" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="J2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -1505,20 +1577,23 @@
       <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -1528,43 +1603,54 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>160848</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>160848</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -1574,43 +1660,56 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6">
+        <v>0.66</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>4.76</v>
+      </c>
+      <c r="I6" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160850</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -1620,20 +1719,30 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
         <v>0.4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="J8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -1643,20 +1752,24 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -1666,20 +1779,30 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.25</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>7.25</v>
+      </c>
+      <c r="I10" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -1689,20 +1812,23 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -1712,20 +1838,30 @@
       <c r="C12" s="1">
         <v>2.5</v>
       </c>
-      <c r="D12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>5.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -1735,99 +1871,138 @@
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 1]])</f>
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$15</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>160103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>2</v>
-      </c>
-      <c r="C20">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>4.5</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E533A4-0BB6-46D3-92BB-CEB9230E651E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387A52E-E70F-4066-A203-FCF048739EA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1636,14 +1636,20 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.25</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.3</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="J5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387A52E-E70F-4066-A203-FCF048739EA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B74A2B-5930-49FC-9CC7-E25DC3B53122}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,13 +341,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,18 +1761,24 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1958,7 +1964,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1976,7 +1982,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B74A2B-5930-49FC-9CC7-E25DC3B53122}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C583384-36C9-44E4-BDCE-4BCE0555B43F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -66,6 +69,30 @@
   </si>
   <si>
     <t>Lab 2.3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Lab 3.1</t>
+  </si>
+  <si>
+    <t>Lab 3.2</t>
+  </si>
+  <si>
+    <t>Lab 3.3</t>
+  </si>
+  <si>
+    <t>Lab 3 Hard</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Lone</t>
   </si>
 </sst>
 </file>
@@ -145,16 +172,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,7 +191,7 @@
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -176,6 +200,54 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -341,19 +413,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -364,6 +436,370 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CBC0-4027-9BA8-6DB3A74A5835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="397792856"/>
+        <c:axId val="397796136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397792856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397796136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397796136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397792856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liczba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F53A-4359-AD94-A8FCB02319CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,7 +1046,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1151,28 +2130,140 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765C1D5D-D12A-46AB-A7E4-8877685CC1C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Liczba</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>2</v>
+          </cell>
+          <cell r="C21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>3</v>
+          </cell>
+          <cell r="C22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>3.5</v>
+          </cell>
+          <cell r="C23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>4</v>
+          </cell>
+          <cell r="C24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>4.5</v>
+          </cell>
+          <cell r="C25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>5</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr Indeksu" dataCellStyle="Normalny"/>
-    <tableColumn id="8" xr3:uid="{284AF33C-C2AF-4330-9C00-DE8A9CCAA5B6}" name="Zapoznał się z kartą przedmiotu?"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="10" xr3:uid="{AD10876E-886C-4586-8EEE-D7393C3563ED}" name="Lab 2.1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{57C77962-C958-4FBA-888C-3838BCA53BB6}" name="Lab 2.2"/>
-    <tableColumn id="3" xr3:uid="{C1C56CB6-0705-46FD-8E8C-487D05C5B757}" name="Lab 2.3"/>
-    <tableColumn id="9" xr3:uid="{6D6C8813-70CE-43A8-84DD-01B68E3F59B0}" name="Lab 2 Hard" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44F1D7F5-4DDF-49C9-AD37-0754792DC969}" name="Tabela13" displayName="Tabela13" ref="A1:O14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:O14" xr:uid="{5FAEA2D6-ED62-4363-BD0D-1E4E4CFBDE45}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{BFF3119E-17A4-444C-A2B0-7699637ED28A}" name="Nr Indeksu" dataCellStyle="Normalny"/>
+    <tableColumn id="18" xr3:uid="{A378EF0E-589E-4B05-A032-09C347E93764}" name="+"/>
+    <tableColumn id="8" xr3:uid="{386B7009-0BB8-46AA-B308-4AC9307904B9}" name="Zapoznał się z kartą przedmiotu?"/>
+    <tableColumn id="4" xr3:uid="{CD74BF45-A03B-4118-AE55-1DA52D7F3E28}" name="Lab 1" dataCellStyle="Normalny"/>
+    <tableColumn id="9" xr3:uid="{F3D25606-9ED9-4584-BF34-735481BBF108}" name="Lab 2.1" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{59D82109-EB63-4CA6-A754-F214E24A6566}" name="Lab 2.2" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{DD8BCB3F-A95A-4AF2-827D-1722E67B7A60}" name="Lab 2.3" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{FA95C7C2-4D30-4D1A-AF00-B92FEF56F982}" name="Lab 2 Hard" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{76333C54-7B9A-4744-A549-4A6C68D52460}" name="Lab 3.1" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{7886410A-27CF-4C37-9784-DF6694EE2306}" name="Lab 3.2" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7B1FCB6F-9CA8-4BB1-B9CF-DC7F2FAB008A}" name="Lab 3.3" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{FF20AA90-C3BD-4AA6-B344-C842C519AD02}" name="Lab 3 Hard" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F10F8926-B9A9-4E57-923F-9AB415523532}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="%" dataDxfId="1" dataCellStyle="Normalny">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/$C$16</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{130AFDA1-35D3-402C-9A2A-6AEEBE299C5E}" name="%" dataDxfId="1" dataCellStyle="Normalny">
+      <calculatedColumnFormula>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{75913F9A-0D6D-4A08-8ED7-29E0EE314F55}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
-      <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4DF02C22-3E7C-44C4-B87C-CC55D272518F}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1180,12 +2271,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73B83BD-55CB-46C3-906F-D3EBF01A9E45}" name="Tabela4" displayName="Tabela4" ref="B20:C26" totalsRowShown="0">
-  <autoFilter ref="B20:C26" xr:uid="{BD7E25C7-B0F2-4B26-8646-4C1FAE4B26ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42AF67C5-639B-4369-A244-34872F7F3A19}" name="Tabela44" displayName="Tabela44" ref="B20:C26" totalsRowShown="0">
+  <autoFilter ref="B20:C26" xr:uid="{783FBA5D-F54E-4705-AD23-A85BE447989E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39619886-554B-4148-A5A2-124DA877A202}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{2EA8AC2B-9862-4BD1-8651-15499823A6DC}" name="Liczba">
-      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{130D3823-2753-448D-884E-E9E77B675469}" name="Ocena"/>
+    <tableColumn id="2" xr3:uid="{BD1A1C8A-0F3F-4790-8BD1-41C945915067}" name="Liczba">
+      <calculatedColumnFormula>COUNTIF(Tabela13[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1489,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1500,380 +2591,519 @@
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="5" width="22.09765625" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>6.58</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.65800000000000003</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>8.58</v>
+      </c>
+      <c r="N2" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O2" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
         <v>10</v>
       </c>
-      <c r="I3" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="N3" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>160054</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>6</v>
-      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="J4" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>12.2</v>
+      </c>
+      <c r="N4" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.81333333333333324</v>
+      </c>
+      <c r="O4" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>160848</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>1.25</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>5.25</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.52500000000000002</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>8.76</v>
+      </c>
+      <c r="N5" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O5" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.66</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>4.76</v>
-      </c>
-      <c r="I6" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.47599999999999998</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>6.26</v>
+      </c>
+      <c r="N6" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.41733333333333333</v>
+      </c>
+      <c r="O6" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160850</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160851</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>4</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="O8" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160869</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>7</v>
-      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O9" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>155309</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>1.25</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>7.25</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.72499999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="J10" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>10.5</v>
+      </c>
+      <c r="N10" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
         <v>10</v>
       </c>
-      <c r="I11" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="N11" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>2.5</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
-        <v>5.5</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>175</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>184</v>
+      </c>
+      <c r="N12" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>12.266666666666667</v>
+      </c>
+      <c r="O12" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -1881,32 +3111,41 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
         <v>10</v>
       </c>
-      <c r="I13" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="N13" s="1">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1921,34 +3160,84 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 2 Hard]])</f>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
-        <f>Tabela1[[#This Row],[Suma pkt]]/$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2">
+        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+        <v>3.25</v>
+      </c>
+      <c r="N14" s="2">
+        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.65</v>
+      </c>
+      <c r="O14" s="2">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1963,8 +3252,8 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>5</v>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B21)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1972,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B22)</f>
         <v>2</v>
       </c>
     </row>
@@ -1981,8 +3270,8 @@
         <v>3.5</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>2</v>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B23)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1990,8 +3279,8 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
-        <v>0</v>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1999,8 +3288,8 @@
         <v>4.5</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>0</v>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -2008,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
+        <f>COUNTIF(Tabela13[Propozycja oceny],B26)</f>
         <v>4</v>
       </c>
     </row>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C583384-36C9-44E4-BDCE-4BCE0555B43F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458D2A4-111E-4F30-BD3E-EC8941BE7721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -428,7 +428,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +783,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -792,7 +792,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2206,7 @@
             <v>3.5</v>
           </cell>
           <cell r="C23">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="24">
@@ -2230,7 +2230,7 @@
             <v>5</v>
           </cell>
           <cell r="C26">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -2583,7 +2583,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3087,20 +3087,20 @@
         <v>1.5</v>
       </c>
       <c r="K12" s="1">
-        <v>175</v>
+        <v>1.75</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
         <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
-        <v>184</v>
+        <v>10.75</v>
       </c>
       <c r="N12" s="1">
         <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>12.266666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="O12" s="1">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela13[Propozycja oceny],B23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C26">
         <f>COUNTIF(Tabela13[Propozycja oceny],B26)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458D2A4-111E-4F30-BD3E-EC8941BE7721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D5E80-08A9-48F4-9C1B-9B812FD258E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Lone</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 1</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -200,6 +203,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -413,22 +424,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,22 +788,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,6 +811,370 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F53A-4359-AD94-A8FCB02319CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="397792856"/>
+        <c:axId val="397796136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397792856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397796136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397796136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397792856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liczba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8A6-4688-BA13-0CFF629C03D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1086,6 +1461,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1590,6 +2005,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2168,6 +3086,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03506540-5A12-4469-85E8-60AC3B742804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2190,7 +3146,7 @@
             <v>2</v>
           </cell>
           <cell r="C21">
-            <v>4</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="22">
@@ -2198,7 +3154,7 @@
             <v>3</v>
           </cell>
           <cell r="C22">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="23">
@@ -2206,7 +3162,7 @@
             <v>3.5</v>
           </cell>
           <cell r="C23">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="24">
@@ -2222,7 +3178,7 @@
             <v>4.5</v>
           </cell>
           <cell r="C25">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="26">
@@ -2230,40 +3186,41 @@
             <v>5</v>
           </cell>
           <cell r="C26">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44F1D7F5-4DDF-49C9-AD37-0754792DC969}" name="Tabela13" displayName="Tabela13" ref="A1:O14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:O14" xr:uid="{5FAEA2D6-ED62-4363-BD0D-1E4E4CFBDE45}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{BFF3119E-17A4-444C-A2B0-7699637ED28A}" name="Nr Indeksu" dataCellStyle="Normalny"/>
-    <tableColumn id="18" xr3:uid="{A378EF0E-589E-4B05-A032-09C347E93764}" name="+"/>
-    <tableColumn id="8" xr3:uid="{386B7009-0BB8-46AA-B308-4AC9307904B9}" name="Zapoznał się z kartą przedmiotu?"/>
-    <tableColumn id="4" xr3:uid="{CD74BF45-A03B-4118-AE55-1DA52D7F3E28}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="9" xr3:uid="{F3D25606-9ED9-4584-BF34-735481BBF108}" name="Lab 2.1" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{59D82109-EB63-4CA6-A754-F214E24A6566}" name="Lab 2.2" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{DD8BCB3F-A95A-4AF2-827D-1722E67B7A60}" name="Lab 2.3" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{FA95C7C2-4D30-4D1A-AF00-B92FEF56F982}" name="Lab 2 Hard" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{76333C54-7B9A-4744-A549-4A6C68D52460}" name="Lab 3.1" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{7886410A-27CF-4C37-9784-DF6694EE2306}" name="Lab 3.2" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{7B1FCB6F-9CA8-4BB1-B9CF-DC7F2FAB008A}" name="Lab 3.3" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{FF20AA90-C3BD-4AA6-B344-C842C519AD02}" name="Lab 3 Hard" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F10F8926-B9A9-4E57-923F-9AB415523532}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:P14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:P14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
+    <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
+    <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
+    <tableColumn id="4" xr3:uid="{B719416E-85EE-4412-99EE-DF5D670E53B8}" name="Lab 1" dataCellStyle="Normalny"/>
+    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{130AFDA1-35D3-402C-9A2A-6AEEBE299C5E}" name="%" dataDxfId="1" dataCellStyle="Normalny">
-      <calculatedColumnFormula>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="%" dataDxfId="1" dataCellStyle="Normalny">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4DF02C22-3E7C-44C4-B87C-CC55D272518F}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
-      <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2271,12 +3228,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42AF67C5-639B-4369-A244-34872F7F3A19}" name="Tabela44" displayName="Tabela44" ref="B20:C26" totalsRowShown="0">
-  <autoFilter ref="B20:C26" xr:uid="{783FBA5D-F54E-4705-AD23-A85BE447989E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A80C509-0739-4EDA-A566-89613F5BB5D7}" name="Tabela4" displayName="Tabela4" ref="B20:C26" totalsRowShown="0">
+  <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{130D3823-2753-448D-884E-E9E77B675469}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{BD1A1C8A-0F3F-4790-8BD1-41C945915067}" name="Liczba">
-      <calculatedColumnFormula>COUNTIF(Tabela13[Propozycja oceny],B21)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba">
+      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2580,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2594,7 +3551,7 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2632,16 +3589,19 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -2674,20 +3634,21 @@
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>8.58</v>
       </c>
-      <c r="N2" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.57199999999999995</v>
-      </c>
       <c r="O2" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -2710,19 +3671,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
-        <v>10</v>
+        <f>2.5+0.0001</f>
+        <v>2.5001000000000002</v>
       </c>
       <c r="N3" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>1</v>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
+        <v>12.5001</v>
       </c>
       <c r="O3" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.83333999999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -2755,20 +3720,21 @@
         <v>2</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>12.2</v>
       </c>
-      <c r="N4" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.81333333333333324</v>
-      </c>
       <c r="O4" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.61</v>
+      </c>
+      <c r="P4" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -2798,20 +3764,21 @@
         <v>0.01</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>8.76</v>
       </c>
-      <c r="N5" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.58399999999999996</v>
-      </c>
       <c r="O5" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.438</v>
+      </c>
+      <c r="P5" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -2840,20 +3807,21 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>6.26</v>
       </c>
-      <c r="N6" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.41733333333333333</v>
-      </c>
       <c r="O6" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.313</v>
+      </c>
+      <c r="P6" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -2875,20 +3843,21 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>9</v>
       </c>
-      <c r="N7" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.9</v>
-      </c>
       <c r="O7" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.6</v>
+      </c>
+      <c r="P7" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -2921,20 +3890,21 @@
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>8</v>
       </c>
-      <c r="N8" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.53333333333333333</v>
-      </c>
       <c r="O8" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -2965,20 +3935,21 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>10</v>
       </c>
-      <c r="N9" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="O9" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -3009,20 +3980,21 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>10.5</v>
       </c>
-      <c r="N10" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.7</v>
-      </c>
       <c r="O10" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P10" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -3044,20 +4016,21 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>10</v>
       </c>
-      <c r="N11" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>1</v>
-      </c>
       <c r="O11" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P11" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -3091,19 +4064,22 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
-        <v>10.75</v>
+        <v>5</v>
       </c>
       <c r="N12" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.71666666666666667</v>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
+        <v>15.75</v>
       </c>
       <c r="O12" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="P12" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -3125,20 +4101,21 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>10</v>
       </c>
-      <c r="N13" s="1">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P13" s="1">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -3173,20 +4150,21 @@
         <v>0</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="2">
-        <f>SUM(Tabela13[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Lab 3 Hard]])</f>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
         <v>3.25</v>
       </c>
-      <c r="N14" s="2">
-        <f>Tabela13[[#This Row],[Suma pkt]]/IF(Tabela13[[#This Row],[+]]=1,$D$17,IF(Tabela13[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.65</v>
-      </c>
       <c r="O14" s="2">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P14" s="2">
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3200,11 +4178,12 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +4191,7 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -3220,7 +4199,7 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -3228,7 +4207,7 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -3252,8 +4231,8 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B21)</f>
-        <v>4</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -3261,8 +4240,8 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B22)</f>
-        <v>2</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -3270,8 +4249,8 @@
         <v>3.5</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B23)</f>
-        <v>2</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -3279,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B24)</f>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
         <v>1</v>
       </c>
     </row>
@@ -3288,8 +4267,8 @@
         <v>4.5</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B25)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -3297,8 +4276,8 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Tabela13[Propozycja oceny],B26)</f>
-        <v>3</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D5E80-08A9-48F4-9C1B-9B812FD258E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40883EAE-E6DC-4920-9602-869CF2C1E3BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3539,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3843,18 +3843,20 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>2.5001000000000002</v>
+      </c>
       <c r="N7" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>9</v>
+        <v>11.5001</v>
       </c>
       <c r="O7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.6</v>
+        <v>0.76667333333333332</v>
       </c>
       <c r="P7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4241,7 +4243,7 @@
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -4250,7 +4252,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40883EAE-E6DC-4920-9602-869CF2C1E3BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D69629-3304-4D86-8189-F3D7DCBFE61F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -95,7 +95,16 @@
     <t>Lone</t>
   </si>
   <si>
-    <t>Zadanie domowe 1</t>
+    <t>Zadanie domowe 1a</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 1b</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 1c</t>
+  </si>
+  <si>
+    <t>A-a, nie używamy #include&lt;algorithm&gt;</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +149,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +168,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +185,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -174,8 +196,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -185,16 +208,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Dobry" xfId="5" builtinId="26"/>
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Zły" xfId="6" builtinId="27"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -203,14 +255,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -371,370 +415,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Liczba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$21:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$21:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBC0-4027-9BA8-6DB3A74A5835}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="397792856"/>
-        <c:axId val="397796136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="397792856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="397796136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="397796136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="397792856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Histogram</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>[1]Sheet2!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -788,386 +468,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F53A-4359-AD94-A8FCB02319CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="397792856"/>
-        <c:axId val="397796136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="397792856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="397796136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="397796136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="397792856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Histogram</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet2!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Liczba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet2!$B$21:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet2!$C$21:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,86 +737,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2004,1100 +1240,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4638D73C-CB8C-41EE-8CD5-A71E368EC947}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765C1D5D-D12A-46AB-A7E4-8877685CC1C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3118,7 +1274,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3146,7 +1302,7 @@
             <v>2</v>
           </cell>
           <cell r="C21">
-            <v>7</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="22">
@@ -3154,7 +1310,7 @@
             <v>3</v>
           </cell>
           <cell r="C22">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="23">
@@ -3162,7 +1318,7 @@
             <v>3.5</v>
           </cell>
           <cell r="C23">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="24">
@@ -3178,7 +1334,7 @@
             <v>4.5</v>
           </cell>
           <cell r="C25">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="26">
@@ -3186,40 +1342,42 @@
             <v>5</v>
           </cell>
           <cell r="C26">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:P14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:P14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:R14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:R14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{B719416E-85EE-4412-99EE-DF5D670E53B8}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="%" dataDxfId="1" dataCellStyle="Normalny">
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="%" dataDxfId="5" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Propozycja oceny" dataDxfId="4" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3537,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M16" sqref="M16:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3548,10 +1706,10 @@
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="5" width="22.09765625" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3592,16 +1750,22 @@
         <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -3634,21 +1798,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
       <c r="N2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>8.58</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>12.08</v>
+      </c>
+      <c r="Q2" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="P2" s="1">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="R2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -3671,23 +1843,28 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>2.5+0.0001</f>
-        <v>2.5001000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="N3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>12.5001</v>
-      </c>
-      <c r="O3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="O3">
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>14.3</v>
+      </c>
+      <c r="Q3" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.83333999999999997</v>
-      </c>
-      <c r="P3" s="1">
+        <v>0.95333333333333337</v>
+      </c>
+      <c r="R3" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -3720,21 +1897,29 @@
         <v>2</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>1.5</v>
+      </c>
       <c r="N4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>12.2</v>
-      </c>
-      <c r="O4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>16.2</v>
+      </c>
+      <c r="Q4" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.61</v>
-      </c>
-      <c r="P4" s="1">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="R4" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -3764,21 +1949,29 @@
         <v>0.01</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>0.75</v>
+      </c>
       <c r="N5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>8.76</v>
-      </c>
-      <c r="O5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>11.26</v>
+      </c>
+      <c r="Q5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.438</v>
-      </c>
-      <c r="P5" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="R5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -3808,20 +2001,22 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
         <v>6.26</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.313</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -3829,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -3844,22 +2039,28 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>2.5001000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>11.5001</v>
-      </c>
-      <c r="O7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.76667333333333332</v>
-      </c>
-      <c r="P7" s="1">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="R7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -3892,21 +2093,29 @@
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
       <c r="N8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>8</v>
-      </c>
-      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -3937,21 +2146,29 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>1.5</v>
+      </c>
       <c r="N9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>10</v>
-      </c>
-      <c r="O9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="R9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -3982,21 +2199,29 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>1.5</v>
+      </c>
       <c r="N10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>10.5</v>
-      </c>
-      <c r="O10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>14.5</v>
+      </c>
+      <c r="Q10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="P10" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="R10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -4018,21 +2243,29 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
       <c r="N11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>13.5</v>
+      </c>
+      <c r="Q11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -4066,22 +2299,28 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
         <v>15.75</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -4104,20 +2343,22 @@
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
         <v>10</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -4152,21 +2393,30 @@
         <v>0</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1]])</f>
-        <v>3.25</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="M14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <f>1+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14" s="2">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+        <v>6.85</v>
+      </c>
+      <c r="Q14" s="2">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P14" s="2">
+        <v>0.68499999999999994</v>
+      </c>
+      <c r="R14" s="2">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4181,11 +2431,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -4195,49 +2447,69 @@
       <c r="D16">
         <v>20</v>
       </c>
+      <c r="M16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -4246,16 +2518,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.5</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -4264,27 +2536,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4.5</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26">
         <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="M16:O21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D69629-3304-4D86-8189-F3D7DCBFE61F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230EAD-4D07-4FEC-9558-1EF7DBC5DB5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>A-a, nie używamy #include&lt;algorithm&gt;</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 2a</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 2b</t>
+  </si>
+  <si>
+    <t>Zadanie domowe 2c</t>
   </si>
 </sst>
 </file>
@@ -205,10 +214,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -222,7 +231,16 @@
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Zły" xfId="6" builtinId="27"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -468,19 +486,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1302,7 +1320,7 @@
             <v>2</v>
           </cell>
           <cell r="C21">
-            <v>3</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="22">
@@ -1310,7 +1328,7 @@
             <v>3</v>
           </cell>
           <cell r="C22">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="23">
@@ -1318,7 +1336,7 @@
             <v>3.5</v>
           </cell>
           <cell r="C23">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="24">
@@ -1334,7 +1352,7 @@
             <v>4.5</v>
           </cell>
           <cell r="C25">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="26">
@@ -1353,32 +1371,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:R14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:R14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:U14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:U14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{B719416E-85EE-4412-99EE-DF5D670E53B8}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="8" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="7" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="%" dataDxfId="5" dataCellStyle="Normalny">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="1" dataCellStyle="Normalny">
+      <calculatedColumnFormula>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Propozycja oceny" dataDxfId="4" dataCellStyle="Normalny">
-      <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1391,7 +1412,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
     <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba">
-      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Tabela1[Zadanie domowe 2c],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1695,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:O21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1707,9 +1728,10 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="5" width="22.09765625" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,16 +1778,25 @@
         <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -1807,20 +1838,23 @@
       <c r="O2" s="1">
         <v>1.5</v>
       </c>
-      <c r="P2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>12.08</v>
       </c>
-      <c r="Q2" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="R2" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+      <c r="T2" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -1851,20 +1885,20 @@
       <c r="O3">
         <v>1.5</v>
       </c>
-      <c r="P3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S3" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14.3</v>
       </c>
-      <c r="Q3" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.95333333333333337</v>
-      </c>
-      <c r="R3" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+      <c r="T3" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="U3" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -1903,23 +1937,33 @@
       <c r="N4" s="1">
         <v>1.5</v>
       </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
-        <v>16.2</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="R4" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f>2+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="S4" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <v>21.7</v>
+      </c>
+      <c r="T4" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="U4" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -1955,23 +1999,23 @@
       <c r="N5" s="1">
         <v>0.75</v>
       </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11.26</v>
       </c>
-      <c r="Q5" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="R5" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="T5" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.45039999999999997</v>
+      </c>
+      <c r="U5" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -2003,20 +2047,20 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S6" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>6.26</v>
       </c>
-      <c r="Q6" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.313</v>
-      </c>
-      <c r="R6" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="T6" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="U6" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -2044,23 +2088,33 @@
       <c r="N7" s="1">
         <v>1.5</v>
       </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
-        <v>14</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="R7" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <v>20</v>
+      </c>
+      <c r="T7" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -2099,23 +2153,23 @@
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11</v>
       </c>
-      <c r="Q8" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R8" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+      <c r="T8" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.44</v>
+      </c>
+      <c r="U8" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -2152,23 +2206,23 @@
       <c r="N9" s="1">
         <v>1.5</v>
       </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14</v>
       </c>
-      <c r="Q9" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.7</v>
-      </c>
-      <c r="R9" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+      <c r="T9" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U9" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -2205,23 +2259,23 @@
       <c r="N10" s="1">
         <v>1.5</v>
       </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14.5</v>
       </c>
-      <c r="Q10" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="R10" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+      <c r="T10" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U10" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -2252,20 +2306,20 @@
       <c r="O11" s="1">
         <v>1.5</v>
       </c>
-      <c r="P11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S11" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>13.5</v>
       </c>
-      <c r="Q11" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.9</v>
-      </c>
-      <c r="R11" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+      <c r="T11" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="U11" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -2307,20 +2361,20 @@
       <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S12" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>15.75</v>
       </c>
-      <c r="Q12" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="R12" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+      <c r="T12" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.63</v>
+      </c>
+      <c r="U12" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -2345,20 +2399,20 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S13" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>10</v>
       </c>
-      <c r="Q13" s="1">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R13" s="1">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+      <c r="T13" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -2399,24 +2453,24 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f>1+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P14" s="2">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 1c]])</f>
+      <c r="S14" s="2">
+        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>6.85</v>
       </c>
-      <c r="Q14" s="2">
-        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.68499999999999994</v>
-      </c>
-      <c r="R14" s="2">
-        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+      <c r="T14" s="2">
+        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.45666666666666667</v>
+      </c>
+      <c r="U14" s="2">
+        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2437,7 +2491,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>26</v>
@@ -2458,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2469,17 +2523,17 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="M19" s="6"/>
@@ -2502,8 +2556,8 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>3</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B21)</f>
+        <v>0</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2514,8 +2568,8 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>3</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2523,8 +2577,8 @@
         <v>3.5</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>3</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2532,8 +2586,8 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2541,8 +2595,8 @@
         <v>4.5</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>2</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B25)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2550,8 +2604,8 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B26)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230EAD-4D07-4FEC-9558-1EF7DBC5DB5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F06174-A2B3-47BF-A537-8BB03646056F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,6 +234,33 @@
   <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -264,15 +291,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -486,13 +504,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -501,7 +519,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1338,7 @@
             <v>2</v>
           </cell>
           <cell r="C21">
-            <v>8</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="22">
@@ -1328,7 +1346,7 @@
             <v>3</v>
           </cell>
           <cell r="C22">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="23">
@@ -1336,7 +1354,7 @@
             <v>3.5</v>
           </cell>
           <cell r="C23">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="24">
@@ -1360,7 +1378,7 @@
             <v>5</v>
           </cell>
           <cell r="C26">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -1386,12 +1404,12 @@
     <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="11"/>
     <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="8" dataCellStyle="Normalny"/>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="7" dataCellStyle="Normalny"/>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="3" dataCellStyle="Normalny"/>
     <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
     </tableColumn>
@@ -1718,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1838,20 +1856,24 @@
       <c r="O2" s="1">
         <v>1.5</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2">
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>12.08</v>
-      </c>
-      <c r="T2" s="2">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="T2" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.48320000000000002</v>
-      </c>
-      <c r="U2" s="2">
+        <v>0.64319999999999988</v>
+      </c>
+      <c r="U2" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1885,17 +1907,26 @@
       <c r="O3">
         <v>1.5</v>
       </c>
-      <c r="S3" s="2">
+      <c r="P3">
+        <v>1.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.75</v>
+      </c>
+      <c r="R3">
+        <v>2.25</v>
+      </c>
+      <c r="S3" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>14.3</v>
-      </c>
-      <c r="T3" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="T3" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.71500000000000008</v>
-      </c>
-      <c r="U3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="U3" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -1950,15 +1981,15 @@
         <f>2+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>21.7</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
@@ -2002,15 +2033,15 @@
       <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11.26</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.45039999999999997</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2047,15 +2078,15 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>6.26</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.25040000000000001</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2101,15 +2132,15 @@
         <f>2+1</f>
         <v>3</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>20</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>1</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
@@ -2156,15 +2187,15 @@
       <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.44</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2209,15 +2240,15 @@
       <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2262,15 +2293,15 @@
       <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14.5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2306,15 +2337,15 @@
       <c r="O11" s="1">
         <v>1.5</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>13.5</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
@@ -2361,15 +2392,15 @@
       <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>15.75</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.63</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
@@ -2399,15 +2430,15 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>10</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.5</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
@@ -2557,7 +2588,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Zadanie domowe 2c],B21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F06174-A2B3-47BF-A537-8BB03646056F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A77616-F1B4-4474-B89C-F63E45265ED7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Zły" xfId="6" builtinId="27"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -249,6 +249,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -507,13 +510,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1346,7 +1349,7 @@
             <v>3</v>
           </cell>
           <cell r="C22">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="23">
@@ -1362,7 +1365,7 @@
             <v>4</v>
           </cell>
           <cell r="C24">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="25">
@@ -1396,28 +1399,28 @@
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{B719416E-85EE-4412-99EE-DF5D670E53B8}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="4" dataCellStyle="Normalny"/>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="3" dataCellStyle="Normalny"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="2" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="1" dataCellStyle="Normalny">
-      <calculatedColumnFormula>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="0" dataCellStyle="Normalny">
-      <calculatedColumnFormula>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="1" dataCellStyle="Normalny">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1429,8 +1432,8 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba">
-      <calculatedColumnFormula>COUNTIF(Tabela1[Zadanie domowe 2c],B21)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1737,7 +1740,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1864,15 +1867,15 @@
         <v>2</v>
       </c>
       <c r="S2" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>16.079999999999998</v>
       </c>
       <c r="T2" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.64319999999999988</v>
       </c>
       <c r="U2" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
@@ -1917,15 +1920,15 @@
         <v>2.25</v>
       </c>
       <c r="S3" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>19.2</v>
       </c>
       <c r="T3" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.96</v>
       </c>
       <c r="U3" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
@@ -1982,15 +1985,15 @@
         <v>2.5</v>
       </c>
       <c r="S4" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>21.7</v>
       </c>
       <c r="T4" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="U4" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
@@ -2034,15 +2037,15 @@
         <v>1</v>
       </c>
       <c r="S5" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11.26</v>
       </c>
       <c r="T5" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.45039999999999997</v>
       </c>
       <c r="U5" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2079,15 +2082,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="S6" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>6.26</v>
       </c>
       <c r="T6" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.25040000000000001</v>
       </c>
       <c r="U6" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2133,15 +2136,15 @@
         <v>3</v>
       </c>
       <c r="S7" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>20</v>
       </c>
       <c r="T7" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
     </row>
@@ -2188,15 +2191,15 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>11</v>
       </c>
       <c r="T8" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.44</v>
       </c>
       <c r="U8" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2241,15 +2244,15 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14</v>
       </c>
       <c r="T9" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="U9" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2294,15 +2297,15 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>14.5</v>
       </c>
       <c r="T10" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U10" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2338,15 +2341,15 @@
         <v>1.5</v>
       </c>
       <c r="S11" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>13.5</v>
       </c>
       <c r="T11" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="U11" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
@@ -2392,17 +2395,26 @@
       <c r="O12" s="1">
         <v>2</v>
       </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0.9</v>
+      </c>
+      <c r="R12">
+        <v>2.5</v>
+      </c>
       <c r="S12" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>15.75</v>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <v>21.15</v>
       </c>
       <c r="T12" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.63</v>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <v>0.84599999999999997</v>
       </c>
       <c r="U12" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2431,15 +2443,15 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="S13" s="1">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>10</v>
       </c>
       <c r="T13" s="1">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="1">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2489,15 +2501,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S14" s="2">
-        <f>SUM([1]!Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>6.85</v>
       </c>
       <c r="T14" s="2">
-        <f>[1]!Tabela1[[#This Row],[Suma pkt]]/IF([1]!Tabela1[[#This Row],[+]]=1,$D$17,IF([1]!Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
+        <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
         <v>0.45666666666666667</v>
       </c>
       <c r="U14" s="2">
-        <f>IF([1]!Tabela1[[#This Row],[%]]&lt;0.6, 2, IF([1]!Tabela1[[#This Row],[%]]&lt;0.7, 3, IF([1]!Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF([1]!Tabela1[[#This Row],[%]]&lt;0.9, 4, IF([1]!Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
@@ -2587,8 +2599,8 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B21)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
+        <v>7</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2599,8 +2611,8 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B22)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2608,7 +2620,7 @@
         <v>3.5</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B23)</f>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
         <v>0</v>
       </c>
     </row>
@@ -2617,8 +2629,8 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B24)</f>
-        <v>0</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2626,7 +2638,7 @@
         <v>4.5</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B25)</f>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2635,8 +2647,8 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Tabela1[Zadanie domowe 2c],B26)</f>
-        <v>0</v>
+        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A77616-F1B4-4474-B89C-F63E45265ED7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321A97F-50F4-4CB9-9E8C-D6070C42FCFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,6 +234,9 @@
   <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -249,9 +252,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1416,7 +1416,7 @@
     <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="0" dataCellStyle="Normalny">
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="1" dataCellStyle="Normalny">
@@ -1432,7 +1432,7 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="S4" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="T4" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.86799999999999999</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="U4" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321A97F-50F4-4CB9-9E8C-D6070C42FCFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92806FB0-FE38-4DB4-B149-26D8A2295598}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,11 +454,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$C$20</c:f>
+              <c:f>Sheet2!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Liczba</c:v>
+                  <c:v>Ocena</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,15 +502,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet2!$C$21:$C$26</c:f>
+              <c:f>Sheet2!$C$21:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2036,17 +2036,26 @@
       <c r="O5" s="4">
         <v>1</v>
       </c>
+      <c r="P5">
+        <v>2.1</v>
+      </c>
+      <c r="Q5">
+        <v>0.9</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
       <c r="S5" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>11.26</v>
+        <v>16.009999999999998</v>
       </c>
       <c r="T5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.45039999999999997</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="U5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2600,7 +2609,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2612,7 +2621,7 @@
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92806FB0-FE38-4DB4-B149-26D8A2295598}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4359BBB-28C1-4DAE-89CF-AEB8A9C18659}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,6 +233,30 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -270,30 +294,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -507,13 +507,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -522,7 +522,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,57 +1331,34 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Liczba</v>
-          </cell>
-        </row>
         <row r="21">
           <cell r="B21">
             <v>2</v>
-          </cell>
-          <cell r="C21">
-            <v>7</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
             <v>3</v>
           </cell>
-          <cell r="C22">
-            <v>2</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23">
             <v>3.5</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
             <v>4</v>
           </cell>
-          <cell r="C24">
-            <v>2</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25">
             <v>4.5</v>
           </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
             <v>5</v>
-          </cell>
-          <cell r="C26">
-            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -1407,19 +1384,19 @@
     <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="11"/>
     <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="6" dataCellStyle="Normalny"/>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="9" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="8" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="7" dataCellStyle="Normalny"/>
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="6" dataCellStyle="Normalny">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="2" dataCellStyle="Normalny">
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="5" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="1" dataCellStyle="Normalny">
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="4" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1432,7 +1409,7 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="3">
       <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1739,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1839,9 @@
       <c r="P2" s="1">
         <v>2</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
@@ -2087,16 +2066,32 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>1.5+0.5</f>
+        <v>2</v>
+      </c>
       <c r="S6" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>6.26</v>
+        <v>10.26</v>
       </c>
       <c r="T6" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.25040000000000001</v>
+        <v>0.41039999999999999</v>
       </c>
       <c r="U6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -2199,17 +2194,27 @@
       <c r="O8" s="4">
         <v>1</v>
       </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <f>1.75+0.5</f>
+        <v>2.25</v>
+      </c>
       <c r="S8" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>11</v>
+        <v>15.75</v>
       </c>
       <c r="T8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="U8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -2252,17 +2257,26 @@
       <c r="O9" s="4">
         <v>1</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
       <c r="S9" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="U9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -2305,17 +2319,26 @@
       <c r="O10" s="4">
         <v>1</v>
       </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>2.1</v>
+      </c>
       <c r="S10" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>14.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="T10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.57999999999999996</v>
+        <v>0.72400000000000009</v>
       </c>
       <c r="U10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2349,17 +2372,26 @@
       <c r="O11" s="1">
         <v>1.5</v>
       </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
       <c r="S11" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>13.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="T11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.67500000000000004</v>
+        <v>0.97</v>
       </c>
       <c r="U11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2448,9 +2480,24 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
       <c r="S13" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
         <v>10</v>
@@ -2509,17 +2556,26 @@
         <f>1+0.1</f>
         <v>1.1000000000000001</v>
       </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
       <c r="S14" s="2">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>6.85</v>
+        <v>11.85</v>
       </c>
       <c r="T14" s="2">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.45666666666666667</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="U14" s="2">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2609,7 +2665,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2621,7 +2677,7 @@
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2630,7 +2686,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2657,7 +2713,7 @@
       </c>
       <c r="C26">
         <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4359BBB-28C1-4DAE-89CF-AEB8A9C18659}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBED5D-E1A9-45B2-B93B-254F5CC69AC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Zadanie domowe 2c</t>
+  </si>
+  <si>
+    <t>Kolokwium 1</t>
   </si>
 </sst>
 </file>
@@ -233,22 +236,7 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -279,6 +267,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -287,13 +283,20 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -507,22 +510,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1292,7 @@
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>483870</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
@@ -1369,9 +1372,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:U14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:U14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:V14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:V14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
@@ -1384,19 +1387,20 @@
     <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="11"/>
     <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="9" dataCellStyle="Normalny"/>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="8" dataCellStyle="Normalny"/>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="7" dataCellStyle="Normalny"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="6" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="22" xr3:uid="{AB44D86E-C69E-4E5D-97FF-F9479074D942}" name="Kolokwium 1"/>
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="5" dataCellStyle="Normalny">
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="3" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="4" dataCellStyle="Normalny">
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1409,7 +1413,7 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1714,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1726,10 +1730,11 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="5" width="22.09765625" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.69921875" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="22" max="22" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,16 +1790,19 @@
         <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -1846,19 +1854,22 @@
         <v>2</v>
       </c>
       <c r="S2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>16.079999999999998</v>
+        <v>22.5</v>
       </c>
       <c r="T2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>38.58</v>
+      </c>
+      <c r="U2" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.64319999999999988</v>
-      </c>
-      <c r="U2" s="1">
+        <v>0.61238095238095236</v>
+      </c>
+      <c r="V2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -1898,20 +1909,23 @@
       <c r="R3">
         <v>2.25</v>
       </c>
-      <c r="S3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>19.2</v>
+      <c r="S3">
+        <v>29</v>
       </c>
       <c r="T3" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>48.2</v>
+      </c>
+      <c r="U3" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.96</v>
-      </c>
-      <c r="U3" s="1">
+        <v>0.83103448275862069</v>
+      </c>
+      <c r="V3" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -1963,20 +1977,23 @@
         <f>2+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="S4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>20.7</v>
+      <c r="S4">
+        <v>26</v>
       </c>
       <c r="T4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>46.7</v>
+      </c>
+      <c r="U4" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="U4" s="1">
+        <v>0.7412698412698413</v>
+      </c>
+      <c r="V4" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -2007,13 +2024,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2.1</v>
@@ -2024,20 +2041,23 @@
       <c r="R5">
         <v>1.75</v>
       </c>
-      <c r="S5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>16.009999999999998</v>
+      <c r="S5">
+        <v>27.5</v>
       </c>
       <c r="T5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>46.01</v>
+      </c>
+      <c r="U5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.64039999999999997</v>
-      </c>
-      <c r="U5" s="1">
+        <v>0.73031746031746025</v>
+      </c>
+      <c r="V5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -2085,20 +2105,23 @@
         <f>1.5+0.5</f>
         <v>2</v>
       </c>
-      <c r="S6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>10.26</v>
+      <c r="S6">
+        <v>23.5</v>
       </c>
       <c r="T6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>33.76</v>
+      </c>
+      <c r="U6" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.41039999999999999</v>
-      </c>
-      <c r="U6" s="1">
+        <v>0.53587301587301583</v>
+      </c>
+      <c r="V6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -2139,20 +2162,23 @@
         <f>2+1</f>
         <v>3</v>
       </c>
-      <c r="S7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>20</v>
+      <c r="S7">
+        <v>34.25</v>
       </c>
       <c r="T7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>54.25</v>
+      </c>
+      <c r="U7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
+        <v>0.93534482758620685</v>
+      </c>
+      <c r="V7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -2204,20 +2230,23 @@
         <f>1.75+0.5</f>
         <v>2.25</v>
       </c>
-      <c r="S8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>15.75</v>
+      <c r="S8">
+        <v>32.5</v>
       </c>
       <c r="T8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>48.25</v>
+      </c>
+      <c r="U8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.63</v>
-      </c>
-      <c r="U8" s="1">
+        <v>0.76587301587301593</v>
+      </c>
+      <c r="V8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -2266,20 +2295,23 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>15</v>
+      <c r="S9">
+        <v>27</v>
       </c>
       <c r="T9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>42</v>
+      </c>
+      <c r="U9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.6</v>
-      </c>
-      <c r="U9" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -2328,20 +2360,23 @@
       <c r="R10">
         <v>2.1</v>
       </c>
-      <c r="S10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>18.100000000000001</v>
+      <c r="S10">
+        <v>31.75</v>
       </c>
       <c r="T10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>49.85</v>
+      </c>
+      <c r="U10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.72400000000000009</v>
-      </c>
-      <c r="U10" s="1">
+        <v>0.79126984126984135</v>
+      </c>
+      <c r="V10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -2381,20 +2416,20 @@
       <c r="R11">
         <v>3</v>
       </c>
-      <c r="S11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
+      <c r="T11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.97</v>
-      </c>
-      <c r="U11" s="1">
+        <v>0.33448275862068966</v>
+      </c>
+      <c r="V11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -2445,20 +2480,23 @@
       <c r="R12">
         <v>2.5</v>
       </c>
-      <c r="S12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>21.15</v>
+      <c r="S12">
+        <v>36.5</v>
       </c>
       <c r="T12" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>57.65</v>
+      </c>
+      <c r="U12" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0.91507936507936505</v>
+      </c>
+      <c r="V12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -2498,20 +2536,23 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>10</v>
+      <c r="S13">
+        <v>20.75</v>
       </c>
       <c r="T13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>30.75</v>
+      </c>
+      <c r="U13" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.5</v>
-      </c>
-      <c r="U13" s="1">
+        <v>0.53017241379310343</v>
+      </c>
+      <c r="V13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -2565,20 +2606,23 @@
       <c r="R14">
         <v>2.5</v>
       </c>
-      <c r="S14" s="2">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Zadanie domowe 2c]])</f>
-        <v>11.85</v>
+      <c r="S14">
+        <v>25</v>
       </c>
       <c r="T14" s="2">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
+        <v>36.85</v>
+      </c>
+      <c r="U14" s="2">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="U14" s="2">
+        <v>0.69528301886792454</v>
+      </c>
+      <c r="V14" s="2">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2598,8 +2642,9 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2652,8 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <f>25+38</f>
+        <v>63</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>26</v>
@@ -2620,7 +2666,8 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <f>20+38</f>
+        <v>58</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2631,7 +2678,8 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <f>15+38</f>
+        <v>53</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2665,7 +2713,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2677,7 +2725,7 @@
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2686,7 +2734,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2695,7 +2743,7 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2704,7 +2752,7 @@
       </c>
       <c r="C25">
         <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2713,7 +2761,7 @@
       </c>
       <c r="C26">
         <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBED5D-E1A9-45B2-B93B-254F5CC69AC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DDB14-14FA-4B38-ADB7-845F6028AD49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,15 +237,15 @@
   <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -510,7 +510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -519,7 +519,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -1394,13 +1394,13 @@
     <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
     <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
     <tableColumn id="22" xr3:uid="{AB44D86E-C69E-4E5D-97FF-F9479074D942}" name="Kolokwium 1"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="0" dataCellStyle="Normalny">
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="3" dataCellStyle="Normalny">
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="2" dataCellStyle="Normalny">
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="1" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1413,7 +1413,7 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2416,17 +2416,20 @@
       <c r="R11">
         <v>3</v>
       </c>
+      <c r="S11">
+        <v>31.75</v>
+      </c>
       <c r="T11" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>19.399999999999999</v>
+        <v>51.15</v>
       </c>
       <c r="U11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.33448275862068966</v>
+        <v>0.88189655172413794</v>
       </c>
       <c r="V11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2713,7 +2716,7 @@
       </c>
       <c r="C21">
         <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2743,7 +2746,7 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DDB14-14FA-4B38-ADB7-845F6028AD49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53472669-385C-486D-B8F6-5B13CBA1E1FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Kolokwium 1</t>
+  </si>
+  <si>
+    <t>Kartkówka Binarne</t>
+  </si>
+  <si>
+    <t>Schematy Aktywność</t>
   </si>
 </sst>
 </file>
@@ -237,15 +243,15 @@
   <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -513,19 +519,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1298,7 @@
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>483870</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
@@ -1372,9 +1378,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:V14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:V14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:X14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:X14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
@@ -1394,13 +1400,15 @@
     <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
     <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
     <tableColumn id="22" xr3:uid="{AB44D86E-C69E-4E5D-97FF-F9479074D942}" name="Kolokwium 1"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="3" dataCellStyle="Normalny">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</calculatedColumnFormula>
+    <tableColumn id="23" xr3:uid="{86CD6368-8341-42F6-93DA-EE310D8E0D11}" name="Kartkówka Binarne"/>
+    <tableColumn id="24" xr3:uid="{6381F9A6-5699-4774-9209-F056D1CEE55B}" name="Schematy Aktywność"/>
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="0" dataCellStyle="Normalny">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="2" dataCellStyle="Normalny">
+    <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="3" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="1" dataCellStyle="Normalny">
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1413,7 +1421,7 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1718,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1738,11 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="5" width="22.09765625" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="22" max="22" width="12.69921875" customWidth="1"/>
+    <col min="19" max="21" width="9" customWidth="1"/>
+    <col min="24" max="24" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1793,16 +1801,22 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -1857,19 +1871,22 @@
         <v>22.5</v>
       </c>
       <c r="T2" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>38.58</v>
-      </c>
-      <c r="U2" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="V2" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>43.33</v>
+      </c>
+      <c r="W2" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.61238095238095236</v>
-      </c>
-      <c r="V2" s="1">
+        <v>0.63720588235294118</v>
+      </c>
+      <c r="X2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -1912,20 +1929,26 @@
       <c r="S3">
         <v>29</v>
       </c>
-      <c r="T3" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>48.2</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="T3">
+        <v>2.5</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>52.7</v>
+      </c>
+      <c r="W3" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.83103448275862069</v>
-      </c>
-      <c r="V3" s="1">
+        <v>0.83650793650793653</v>
+      </c>
+      <c r="X3" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -1980,20 +2003,23 @@
       <c r="S4">
         <v>26</v>
       </c>
-      <c r="T4" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>46.7</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="V4" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>49.2</v>
+      </c>
+      <c r="W4" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.7412698412698413</v>
-      </c>
-      <c r="V4" s="1">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="X4" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -2044,20 +2070,23 @@
       <c r="S5">
         <v>27.5</v>
       </c>
-      <c r="T5" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>46.01</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>47.51</v>
+      </c>
+      <c r="W5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.73031746031746025</v>
-      </c>
-      <c r="V5" s="1">
+        <v>0.69867647058823523</v>
+      </c>
+      <c r="X5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -2108,20 +2137,26 @@
       <c r="S6">
         <v>23.5</v>
       </c>
-      <c r="T6" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>33.76</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>37.26</v>
+      </c>
+      <c r="W6" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.53587301587301583</v>
-      </c>
-      <c r="V6" s="1">
+        <v>0.54794117647058815</v>
+      </c>
+      <c r="X6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -2165,20 +2200,26 @@
       <c r="S7">
         <v>34.25</v>
       </c>
-      <c r="T7" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>54.25</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>60</v>
+      </c>
+      <c r="W7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.93534482758620685</v>
-      </c>
-      <c r="V7" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="X7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -2233,20 +2274,23 @@
       <c r="S8">
         <v>32.5</v>
       </c>
-      <c r="T8" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>48.25</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8">
+        <v>1.75</v>
+      </c>
+      <c r="V8" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>50</v>
+      </c>
+      <c r="W8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.76587301587301593</v>
-      </c>
-      <c r="V8" s="1">
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="X8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -2298,20 +2342,23 @@
       <c r="S9">
         <v>27</v>
       </c>
-      <c r="T9" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>42</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>43</v>
+      </c>
+      <c r="W9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V9" s="1">
+        <v>0.63235294117647056</v>
+      </c>
+      <c r="X9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -2363,20 +2410,23 @@
       <c r="S10">
         <v>31.75</v>
       </c>
-      <c r="T10" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>49.85</v>
-      </c>
-      <c r="U10" s="1">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>51.85</v>
+      </c>
+      <c r="W10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.79126984126984135</v>
-      </c>
-      <c r="V10" s="1">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="X10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -2419,20 +2469,26 @@
       <c r="S11">
         <v>31.75</v>
       </c>
-      <c r="T11" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>51.15</v>
-      </c>
-      <c r="U11" s="1">
+      <c r="T11">
+        <v>3.5</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>55.65</v>
+      </c>
+      <c r="W11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.88189655172413794</v>
-      </c>
-      <c r="V11" s="1">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="X11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -2486,20 +2542,23 @@
       <c r="S12">
         <v>36.5</v>
       </c>
-      <c r="T12" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>57.65</v>
-      </c>
-      <c r="U12" s="1">
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>59.65</v>
+      </c>
+      <c r="W12" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.91507936507936505</v>
-      </c>
-      <c r="V12" s="1">
+        <v>0.87720588235294117</v>
+      </c>
+      <c r="X12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -2542,20 +2601,26 @@
       <c r="S13">
         <v>20.75</v>
       </c>
-      <c r="T13" s="1">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>30.75</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>33.75</v>
+      </c>
+      <c r="W13" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.53017241379310343</v>
-      </c>
-      <c r="V13" s="1">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="X13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -2612,20 +2677,23 @@
       <c r="S14">
         <v>25</v>
       </c>
-      <c r="T14" s="2">
-        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Kolokwium 1]])</f>
-        <v>36.85</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="V14" s="2">
+        <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
+        <v>39.1</v>
+      </c>
+      <c r="W14" s="2">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.69528301886792454</v>
-      </c>
-      <c r="V14" s="2">
+        <v>0.67413793103448283</v>
+      </c>
+      <c r="X14" s="2">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2646,8 +2714,10 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2655,8 +2725,7 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <f>25+38</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>26</v>
@@ -2669,8 +2738,7 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <f>20+38</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2681,8 +2749,7 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <f>15+38</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2728,7 +2795,7 @@
       </c>
       <c r="C22">
         <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2737,7 +2804,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2746,7 +2813,7 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2755,7 +2822,7 @@
       </c>
       <c r="C25">
         <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2764,7 +2831,7 @@
       </c>
       <c r="C26">
         <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\Informatyka\InformatykaA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Studenci\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53472669-385C-486D-B8F6-5B13CBA1E1FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DE243-346C-42B5-9B14-03B8F09CC9B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Nr Indeksu</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Pkt.do tej pory:</t>
   </si>
   <si>
-    <t>Propozycja oceny</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -123,6 +120,24 @@
   </si>
   <si>
     <t>Schematy Aktywność</t>
+  </si>
+  <si>
+    <t>Ocena proponowana</t>
+  </si>
+  <si>
+    <t>Ocena z %</t>
+  </si>
+  <si>
+    <t>Kolokwium 2</t>
+  </si>
+  <si>
+    <t>Kolokwium Add</t>
+  </si>
+  <si>
+    <t>WTF</t>
+  </si>
+  <si>
+    <t>Medium - WTF</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -230,6 +245,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Dobry" xfId="5" builtinId="26"/>
@@ -240,7 +256,10 @@
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Zły" xfId="6" builtinId="27"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -252,6 +271,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -447,7 +472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -516,22 +541,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397796136"/>
@@ -655,7 +680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397792856"/>
@@ -697,7 +722,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -734,7 +759,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1378,39 +1403,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:X14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
-  <autoFilter ref="A1:X14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4620B7-998E-45C2-97EA-7AD95A69F346}" name="Tabela1" displayName="Tabela1" ref="A1:AA14" totalsRowShown="0" headerRowCellStyle="Normalny" dataCellStyle="Normalny">
+  <autoFilter ref="A1:AA14" xr:uid="{89E03D9E-D957-434B-B442-C513F245E633}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{13303189-BA89-4ABD-8612-B1085DB27433}" name="Nr Indeksu" dataCellStyle="Normalny"/>
     <tableColumn id="18" xr3:uid="{44CD4EFE-DCDB-4F79-A852-767C60CD7BB8}" name="+"/>
     <tableColumn id="8" xr3:uid="{945DD58E-3198-454E-961A-53267A3053BB}" name="Zapoznał się z kartą przedmiotu?"/>
     <tableColumn id="4" xr3:uid="{B719416E-85EE-4412-99EE-DF5D670E53B8}" name="Lab 1" dataCellStyle="Normalny"/>
-    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="6" dataCellStyle="Normalny"/>
-    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="9" xr3:uid="{84F81AED-95A2-42BE-8EC9-5B3632611674}" name="Lab 2.1" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{F2BF06E0-8B16-4EE0-BDFA-5A8EFEB920BC}" name="Lab 2.2" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{A2C4CE87-91B2-4082-9A39-A14C6E26FE90}" name="Lab 2.3" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{3C7DF423-FAB9-47AF-A093-EEFCE59AF4ED}" name="Lab 2 Hard" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{3B5E6C6E-7ACF-48C9-8A81-4EA689624D51}" name="Lab 3.1" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{F0AD8AD1-6C6E-4844-8916-844DF5F71FF6}" name="Lab 3.2" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{797D4644-B986-4A32-AADD-CB2DDD5F9799}" name="Lab 3.3" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{6ACB1026-D77B-4D5A-84B8-5177A41BB306}" name="Lab 3 Hard" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{D608FD31-2663-4574-A525-96E426C42349}" name="Zadanie domowe 1a" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8EDB3FD7-FE9C-46AD-9029-C5A0602D6CB5}" name="Zadanie domowe 1b" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3510D1F6-414F-4109-B017-80C13E08589B}" name="Zadanie domowe 1c" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{16E5E6A9-DC14-4058-B398-0E2B3DFE7D5D}" name="Zadanie domowe 2a" dataDxfId="7" dataCellStyle="Normalny"/>
+    <tableColumn id="7" xr3:uid="{AE4DD535-37BA-48AD-8401-413CBADCAA6F}" name="Zadanie domowe 2b" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="6" xr3:uid="{FDA9E0E6-904C-479C-A40F-BCC7A59CE7D1}" name="Zadanie domowe 2c" dataDxfId="5" dataCellStyle="Normalny"/>
     <tableColumn id="22" xr3:uid="{AB44D86E-C69E-4E5D-97FF-F9479074D942}" name="Kolokwium 1"/>
     <tableColumn id="23" xr3:uid="{86CD6368-8341-42F6-93DA-EE310D8E0D11}" name="Kartkówka Binarne"/>
+    <tableColumn id="26" xr3:uid="{F3366536-DA76-4981-A80F-9DACE0D00E3C}" name="Kolokwium 2"/>
+    <tableColumn id="27" xr3:uid="{133D7157-FCBB-469D-A12F-59151099CDE9}" name="Kolokwium Add"/>
     <tableColumn id="24" xr3:uid="{6381F9A6-5699-4774-9209-F056D1CEE55B}" name="Schematy Aktywność"/>
-    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="0" dataCellStyle="Normalny">
+    <tableColumn id="19" xr3:uid="{08C1C97F-0BBB-454E-B688-1739A46A2662}" name="Suma pkt" dataDxfId="4" dataCellStyle="Normalny">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{314EC3CE-C855-4324-8539-4B934CE8984A}" name="%" dataDxfId="3" dataCellStyle="Normalny">
       <calculatedColumnFormula>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Propozycja oceny" dataDxfId="2" dataCellStyle="Normalny">
+    <tableColumn id="21" xr3:uid="{A86A1574-D35B-4980-B893-908A889F06E5}" name="Ocena z %" dataDxfId="2" dataCellStyle="Normalny">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="25" xr3:uid="{E72E914C-B482-42D2-9A8E-BA5F94699C2A}" name="Ocena proponowana" dataDxfId="1" dataCellStyle="Dobry"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,8 +1449,8 @@
   <autoFilter ref="B20:C26" xr:uid="{7FF781CC-4DC7-4B04-BE77-AE9C45FCDC33}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10341A04-78BB-42C4-98D9-A9A4AF5C49CC}" name="Ocena"/>
-    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="1">
-      <calculatedColumnFormula>COUNTIF(Tabela1[Propozycja oceny],B21)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{143BEA59-756B-4D96-9ADE-80A0DB18DAC0}" name="Liczba" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(Tabela1[Ocena proponowana],B21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1726,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1740,83 +1768,93 @@
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" customWidth="1"/>
     <col min="24" max="24" width="12.69921875" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>160843</v>
       </c>
@@ -1873,20 +1911,29 @@
       <c r="T2" s="1">
         <v>4.75</v>
       </c>
-      <c r="V2" s="1">
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>43.33</v>
-      </c>
-      <c r="W2" s="1">
+        <v>48.33</v>
+      </c>
+      <c r="Y2" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.63720588235294118</v>
-      </c>
-      <c r="X2" s="1">
+        <v>0.56197674418604648</v>
+      </c>
+      <c r="Z2" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>160846</v>
       </c>
@@ -1933,22 +1980,28 @@
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3" s="1">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>52.7</v>
-      </c>
-      <c r="W3" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="Y3" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.83650793650793653</v>
-      </c>
-      <c r="X3" s="1">
+        <v>0.89753086419753092</v>
+      </c>
+      <c r="Z3" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
+      <c r="AA3" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>160054</v>
       </c>
@@ -2006,20 +2059,26 @@
       <c r="T4">
         <v>2.5</v>
       </c>
-      <c r="V4" s="1">
+      <c r="U4">
+        <v>14</v>
+      </c>
+      <c r="X4" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>49.2</v>
-      </c>
-      <c r="W4" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="Y4" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.72352941176470598</v>
-      </c>
-      <c r="X4" s="1">
+        <v>0.73488372093023258</v>
+      </c>
+      <c r="Z4" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
+      <c r="AA4" s="7">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160848</v>
       </c>
@@ -2073,20 +2132,26 @@
       <c r="T5">
         <v>1.5</v>
       </c>
-      <c r="V5" s="1">
+      <c r="U5">
+        <v>17</v>
+      </c>
+      <c r="X5" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>47.51</v>
-      </c>
-      <c r="W5" s="1">
+        <v>64.509999999999991</v>
+      </c>
+      <c r="Y5" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.69867647058823523</v>
-      </c>
-      <c r="X5" s="1">
+        <v>0.7501162790697673</v>
+      </c>
+      <c r="Z5" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>160849</v>
       </c>
@@ -2141,22 +2206,28 @@
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>37.26</v>
-      </c>
-      <c r="W6" s="1">
+        <v>52.26</v>
+      </c>
+      <c r="Y6" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.54794117647058815</v>
-      </c>
-      <c r="X6" s="1">
+        <v>0.6076744186046511</v>
+      </c>
+      <c r="Z6" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160850</v>
       </c>
@@ -2204,22 +2275,28 @@
         <v>3.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1">
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>60</v>
-      </c>
-      <c r="W7" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="X7" s="1">
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="Z7" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>5</v>
       </c>
+      <c r="AA7" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160851</v>
       </c>
@@ -2277,20 +2354,26 @@
       <c r="T8">
         <v>1.75</v>
       </c>
-      <c r="V8" s="1">
+      <c r="U8">
+        <v>19.5</v>
+      </c>
+      <c r="X8" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>50</v>
-      </c>
-      <c r="W8" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="Y8" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="X8" s="1">
+        <v>0.80813953488372092</v>
+      </c>
+      <c r="Z8" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160869</v>
       </c>
@@ -2345,20 +2428,29 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="V9" s="1">
+      <c r="U9" s="4">
+        <v>5</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>43</v>
-      </c>
-      <c r="W9" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.63235294117647056</v>
-      </c>
-      <c r="X9" s="1">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="Z9" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155309</v>
       </c>
@@ -2413,20 +2505,29 @@
       <c r="T10">
         <v>2</v>
       </c>
-      <c r="V10" s="1">
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>51.85</v>
-      </c>
-      <c r="W10" s="1">
+        <v>58.85</v>
+      </c>
+      <c r="Y10" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.76250000000000007</v>
-      </c>
-      <c r="X10" s="1">
+        <v>0.68430232558139537</v>
+      </c>
+      <c r="Z10" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>3</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>160853</v>
       </c>
@@ -2473,22 +2574,28 @@
         <v>3.5</v>
       </c>
       <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>55.65</v>
-      </c>
-      <c r="W11" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="Y11" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="X11" s="1">
+        <v>0.8783950617283951</v>
+      </c>
+      <c r="Z11" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
+      <c r="AA11" s="7">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>160854</v>
       </c>
@@ -2545,20 +2652,26 @@
       <c r="T12">
         <v>2</v>
       </c>
-      <c r="V12" s="1">
+      <c r="U12">
+        <v>16.5</v>
+      </c>
+      <c r="X12" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>59.65</v>
-      </c>
-      <c r="W12" s="1">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="Y12" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.87720588235294117</v>
-      </c>
-      <c r="X12" s="1">
+        <v>0.88546511627906987</v>
+      </c>
+      <c r="Z12" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
+      <c r="AA12" s="7">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>158372</v>
       </c>
@@ -2605,22 +2718,28 @@
         <v>2</v>
       </c>
       <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>33.75</v>
-      </c>
-      <c r="W13" s="1">
+        <v>50.25</v>
+      </c>
+      <c r="Y13" s="1">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="X13" s="1">
+        <v>0.62037037037037035</v>
+      </c>
+      <c r="Z13" s="1">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>160103</v>
       </c>
@@ -2628,22 +2747,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -2680,20 +2799,29 @@
       <c r="T14">
         <v>2.25</v>
       </c>
-      <c r="V14" s="2">
+      <c r="U14" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="2">
         <f>SUM(Tabela1[[#This Row],[Zapoznał się z kartą przedmiotu?]:[Schematy Aktywność]])</f>
-        <v>39.1</v>
-      </c>
-      <c r="W14" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="Y14" s="2">
         <f>Tabela1[[#This Row],[Suma pkt]]/IF(Tabela1[[#This Row],[+]]=1,$D$17,IF(Tabela1[[#This Row],[+]]=2,$D$18,$D$16))</f>
-        <v>0.67413793103448283</v>
-      </c>
-      <c r="X14" s="2">
+        <v>0.5736842105263158</v>
+      </c>
+      <c r="Z14" s="2">
         <f>IF(Tabela1[[#This Row],[%]]&lt;0.6, 2, IF(Tabela1[[#This Row],[%]]&lt;0.7, 3, IF(Tabela1[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela1[[#This Row],[%]]&lt;0.9, 4, IF(Tabela1[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2717,28 +2845,28 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2746,10 +2874,10 @@
     </row>
     <row r="18" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2757,7 +2885,7 @@
     </row>
     <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="3"/>
@@ -2768,10 +2896,10 @@
     </row>
     <row r="20" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2782,8 +2910,8 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B21)</f>
-        <v>2</v>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B21)</f>
+        <v>0</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2794,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B22)</f>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B22)</f>
         <v>4</v>
       </c>
     </row>
@@ -2803,8 +2931,8 @@
         <v>3.5</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B23)</f>
-        <v>3</v>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B23)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2812,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B24)</f>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B24)</f>
         <v>3</v>
       </c>
     </row>
@@ -2821,8 +2949,8 @@
         <v>4.5</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B25)</f>
-        <v>0</v>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B25)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2830,8 +2958,8 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Tabela1[Propozycja oceny],B26)</f>
-        <v>1</v>
+        <f>COUNTIF(Tabela1[Ocena proponowana],B26)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB94E09-CE0A-463B-96A0-7EC4FD83D58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B2B4-2390-4D52-B9D4-1A38C8BF7D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>22.10.2020</t>
   </si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>CPP</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,29 +163,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -198,17 +303,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -234,8 +353,96 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Arkusz1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="23">
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>0.25</v>
+          </cell>
+          <cell r="G25">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>0.5</v>
+          </cell>
+          <cell r="G26">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>-0.25</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>-0.25</v>
+          </cell>
+          <cell r="G29">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>-0.25</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57767C33-C5B6-4DF6-BFB8-BA5D5C0059B2}" name="Tabela1" displayName="Tabela1" ref="D5:Q19" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57767C33-C5B6-4DF6-BFB8-BA5D5C0059B2}" name="Tabela1" displayName="Tabela1" ref="D5:Q19" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="D5:Q19" xr:uid="{3E2B3541-B56A-4D92-B6E4-9A3B045410D4}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{0CE27A16-5EFD-4978-9CF9-7332502D0963}" name="Indeks"/>
@@ -258,14 +465,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0A142DF-3990-4A89-A617-689E86C799A6}" name="Tabela2" displayName="Tabela2" ref="D22:G36" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="D22:G36" xr:uid="{5673F207-BDF5-4689-A5D9-0991B4F87C8D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{48CB19E4-F6EC-492E-8993-CC454CF0E012}" name="Indeks" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{951514C5-80EF-475C-8731-11F420113D37}" name="Binarne"/>
-    <tableColumn id="3" xr3:uid="{F1DAE331-0D56-49D7-AF6F-C75B5B93A495}" name="Schematy Blokowe"/>
-    <tableColumn id="4" xr3:uid="{8C3D68D6-1EC7-40E8-9021-AD909C4B2693}" name="Suma" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0A142DF-3990-4A89-A617-689E86C799A6}" name="Tabela2" displayName="Tabela2" ref="D22:H36" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="6">
+  <autoFilter ref="D22:H36" xr:uid="{5673F207-BDF5-4689-A5D9-0991B4F87C8D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{48CB19E4-F6EC-492E-8993-CC454CF0E012}" name="Indeks" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{951514C5-80EF-475C-8731-11F420113D37}" name="Binarne" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F1DAE331-0D56-49D7-AF6F-C75B5B93A495}" name="Schematy Blokowe" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8C3D68D6-1EC7-40E8-9021-AD909C4B2693}" name="CPP" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E1146193-8B51-498A-8A16-0A0A3F557925}" name="Suma" dataDxfId="0">
+      <calculatedColumnFormula>SUM([1]Arkusz1!$E23:$G23)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -537,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,22 +761,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
@@ -669,164 +877,241 @@
         <v>167594</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>167595</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>167596</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>167597</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="5" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="6" t="s">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="2">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <v>167584</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUM([1]Arkusz1!$E23:$G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>167594</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUM([1]Arkusz1!$E24:$G24)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="5">
+        <v>167592</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUM([1]Arkusz1!$E25:$G25)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="5">
+        <v>167586</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUM([1]Arkusz1!$E26:$G26)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="6">
+        <v>164025</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUM([1]Arkusz1!$E27:$G27)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="6">
+        <v>167596</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUM([1]Arkusz1!$E28:$G28)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="6">
+        <v>167585</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="6">
+        <f>SUM([1]Arkusz1!$E29:$G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="5">
+        <v>167593</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6">
+        <f>SUM([1]Arkusz1!$E30:$G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="5">
+        <v>167588</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6">
+        <f>SUM([1]Arkusz1!$E31:$G31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
+        <v>167587</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <f>SUM([1]Arkusz1!$E32:$G32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="5">
+        <v>167595</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>-0.25</v>
+      </c>
+      <c r="H33" s="6">
+        <f>SUM([1]Arkusz1!$E33:$G33)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="5">
+        <v>167597</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="6">
+        <f>SUM([1]Arkusz1!$E34:$G34)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>167591</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="6">
+        <f>SUM([1]Arkusz1!$E35:$G35)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D36" s="7">
         <v>167583</v>
       </c>
-      <c r="G23">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="3">
-        <v>167584</v>
-      </c>
-      <c r="G24">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="2">
-        <v>167585</v>
-      </c>
-      <c r="G25">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="3">
-        <v>167586</v>
-      </c>
-      <c r="G26">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="2">
-        <v>167587</v>
-      </c>
-      <c r="G27">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="3">
-        <v>167588</v>
-      </c>
-      <c r="G28">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="2">
-        <v>167591</v>
-      </c>
-      <c r="G29">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="3">
-        <v>167592</v>
-      </c>
-      <c r="G30">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="2">
-        <v>164025</v>
-      </c>
-      <c r="G31">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="3">
-        <v>167593</v>
-      </c>
-      <c r="G32">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="2">
-        <v>167594</v>
-      </c>
-      <c r="G33">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="3">
-        <v>167595</v>
-      </c>
-      <c r="G34">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="2">
-        <v>167596</v>
-      </c>
-      <c r="G35">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="3">
-        <v>167597</v>
-      </c>
-      <c r="G36">
-        <f>SUM(Tabela2[[#This Row],[Binarne]:[Schematy Blokowe]])</f>
-        <v>0</v>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <f>SUM([1]Arkusz1!$E36:$G36)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B2B4-2390-4D52-B9D4-1A38C8BF7D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732AAC2-BA68-4520-93DD-82C467075796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="5580" windowWidth="28800" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -181,20 +178,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -212,30 +209,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -331,11 +304,28 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -353,96 +343,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Arkusz1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="23">
-          <cell r="G23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>0.25</v>
-          </cell>
-          <cell r="G25">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.5</v>
-          </cell>
-          <cell r="G26">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>-0.25</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>-0.25</v>
-          </cell>
-          <cell r="G29">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33">
-            <v>-0.25</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="G35">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57767C33-C5B6-4DF6-BFB8-BA5D5C0059B2}" name="Tabela1" displayName="Tabela1" ref="D5:Q19" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57767C33-C5B6-4DF6-BFB8-BA5D5C0059B2}" name="Tabela1" displayName="Tabela1" ref="D5:Q19" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D5:Q19" xr:uid="{3E2B3541-B56A-4D92-B6E4-9A3B045410D4}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{0CE27A16-5EFD-4978-9CF9-7332502D0963}" name="Indeks"/>
@@ -465,16 +367,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0A142DF-3990-4A89-A617-689E86C799A6}" name="Tabela2" displayName="Tabela2" ref="D22:H36" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0A142DF-3990-4A89-A617-689E86C799A6}" name="Tabela2" displayName="Tabela2" ref="D22:H36" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="D22:H36" xr:uid="{5673F207-BDF5-4689-A5D9-0991B4F87C8D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48CB19E4-F6EC-492E-8993-CC454CF0E012}" name="Indeks" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{951514C5-80EF-475C-8731-11F420113D37}" name="Binarne" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F1DAE331-0D56-49D7-AF6F-C75B5B93A495}" name="Schematy Blokowe" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8C3D68D6-1EC7-40E8-9021-AD909C4B2693}" name="CPP" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E1146193-8B51-498A-8A16-0A0A3F557925}" name="Suma" dataDxfId="0">
-      <calculatedColumnFormula>SUM([1]Arkusz1!$E23:$G23)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{48CB19E4-F6EC-492E-8993-CC454CF0E012}" name="Indeks" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{951514C5-80EF-475C-8731-11F420113D37}" name="Binarne" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F1DAE331-0D56-49D7-AF6F-C75B5B93A495}" name="Schematy Blokowe" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8C3D68D6-1EC7-40E8-9021-AD909C4B2693}" name="CPP" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E1146193-8B51-498A-8A16-0A0A3F557925}" name="Suma" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,7 +646,7 @@
   <dimension ref="D4:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:H36"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,22 +661,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
@@ -898,219 +798,205 @@
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>167584</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="6">
-        <f>SUM([1]Arkusz1!$E23:$G23)</f>
+      <c r="H23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>167594</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>0.5</v>
       </c>
-      <c r="H24" s="6">
-        <f>SUM([1]Arkusz1!$E24:$G24)</f>
+      <c r="H24" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>167592</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
         <v>0.25</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.5</v>
       </c>
-      <c r="H25" s="6">
-        <f>SUM([1]Arkusz1!$E25:$G25)</f>
+      <c r="H25" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>167586</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
         <v>0.5</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.25</v>
       </c>
-      <c r="H26" s="6">
-        <f>SUM([1]Arkusz1!$E26:$G26)</f>
+      <c r="H26" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>164025</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
         <v>0.5</v>
       </c>
-      <c r="H27" s="6">
-        <f>SUM([1]Arkusz1!$E27:$G27)</f>
+      <c r="H27" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>167596</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
         <v>-0.25</v>
       </c>
-      <c r="H28" s="6">
-        <f>SUM([1]Arkusz1!$E28:$G28)</f>
+      <c r="H28" s="5">
         <v>-0.25</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>167585</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>-0.25</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.25</v>
       </c>
-      <c r="H29" s="6">
-        <f>SUM([1]Arkusz1!$E29:$G29)</f>
+      <c r="H29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>167593</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6">
-        <f>SUM([1]Arkusz1!$E30:$G30)</f>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>167588</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6">
-        <f>SUM([1]Arkusz1!$E31:$G31)</f>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>167587</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <f>SUM([1]Arkusz1!$E32:$G32)</f>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>167595</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
         <v>-0.25</v>
       </c>
-      <c r="H33" s="6">
-        <f>SUM([1]Arkusz1!$E33:$G33)</f>
+      <c r="H33" s="5">
         <v>-0.25</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>167597</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
         <v>0.25</v>
       </c>
-      <c r="H34" s="6">
-        <f>SUM([1]Arkusz1!$E34:$G34)</f>
+      <c r="H34" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>167591</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6">
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5">
         <v>0.5</v>
       </c>
-      <c r="H35" s="6">
-        <f>SUM([1]Arkusz1!$E35:$G35)</f>
+      <c r="H35" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>167583</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
         <v>1</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
-        <f>SUM([1]Arkusz1!$E36:$G36)</f>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9246A169-8071-4AEB-B593-0AEDC64FEF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DCF0E-E70E-49E4-9143-CB305BB70134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4944" yWindow="4668" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="32">
   <si>
     <t>22.10.2020</t>
   </si>
@@ -103,13 +103,31 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Kolokwium 1.1</t>
+  </si>
+  <si>
+    <t>Kolokwium 1.2</t>
+  </si>
+  <si>
+    <t>Kolokwium 1.3</t>
+  </si>
+  <si>
+    <t>Kolokwium 1.4</t>
+  </si>
+  <si>
+    <t>Kolokwium 1.5</t>
+  </si>
+  <si>
+    <t>Kolokwium 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +135,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,17 +178,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,7 +316,7 @@
     <tableColumn id="9" xr3:uid="{A21C4967-087F-49C7-B08A-509FB8AE93D3}" name="26.11.2020"/>
     <tableColumn id="10" xr3:uid="{EB9A9C79-39ED-487B-948C-753EDCF0C75C}" name="03.12.2020"/>
     <tableColumn id="11" xr3:uid="{5AC5F0DC-1DB9-4FB4-B230-F0BDA23A410A}" name="10.12.2020"/>
-    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020"/>
+    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021"/>
     <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021"/>
     <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021"/>
@@ -181,9 +327,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:L35" totalsRowShown="0">
-  <autoFilter ref="C21:L35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:R35" totalsRowShown="0">
+  <autoFilter ref="C21:R35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:R35">
+    <sortCondition descending="1" ref="C21:C35"/>
+  </sortState>
+  <tableColumns count="16">
     <tableColumn id="3" xr3:uid="{E402A8D2-7795-457E-9267-4066EA0DEFFB}" name="Indeks"/>
     <tableColumn id="4" xr3:uid="{90814A58-C236-4DEE-8770-7C08AE1D1C07}" name="Binarne"/>
     <tableColumn id="5" xr3:uid="{942382C9-CE0F-4C8F-BC39-8B7D427E1AE6}" name="Schematy Blokowe"/>
@@ -191,8 +340,18 @@
     <tableColumn id="7" xr3:uid="{E59272A2-165F-403C-985C-B8F40612CB3B}" name="CPP 3"/>
     <tableColumn id="8" xr3:uid="{44FCB6FC-11F2-4E6E-B7F3-E055046ACC7C}" name="CPP 4"/>
     <tableColumn id="9" xr3:uid="{14A346B0-3F1B-4B9A-9D67-D9537BFC0C8F}" name="CPP 5"/>
-    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe"/>
-    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma"/>
+    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -462,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P35"/>
+  <dimension ref="C3:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +708,9 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6">
@@ -569,6 +731,9 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C7">
@@ -589,6 +754,9 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8">
@@ -609,6 +777,9 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -629,6 +800,9 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10">
@@ -649,6 +823,9 @@
       <c r="J10" t="s">
         <v>20</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11">
@@ -669,6 +846,9 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12">
@@ -689,6 +869,9 @@
       <c r="J12" t="s">
         <v>20</v>
       </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13">
@@ -703,6 +886,9 @@
       <c r="J13" t="s">
         <v>20</v>
       </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14">
@@ -720,6 +906,9 @@
       <c r="J14" t="s">
         <v>20</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15">
@@ -740,6 +929,9 @@
       <c r="J15" t="s">
         <v>20</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16">
@@ -760,8 +952,11 @@
       <c r="J16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>167596</v>
       </c>
@@ -780,8 +975,11 @@
       <c r="J17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>167597</v>
       </c>
@@ -800,13 +998,16 @@
       <c r="J18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -831,282 +1032,574 @@
       <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" t="s">
         <v>18</v>
       </c>
-      <c r="L21" t="s">
+      <c r="R21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C22">
+        <v>167597</v>
+      </c>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+      <c r="I22">
+        <v>-0.5</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.14839647882770057</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>167596</v>
+      </c>
+      <c r="F23">
+        <v>-0.25</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.25</v>
+      </c>
+      <c r="R23">
+        <v>0.50218804375970238</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>167595</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>-0.25</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>-0.25</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <v>-0.5</v>
       </c>
-      <c r="K22">
-        <v>-1</v>
-      </c>
-      <c r="L22">
+      <c r="J24" s="1"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="P24" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>1.25</v>
+      </c>
+      <c r="R24">
         <v>0.50270614977512906</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>167586</v>
-      </c>
-      <c r="E23">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>167594</v>
+      </c>
+      <c r="F25">
         <v>0.5</v>
       </c>
-      <c r="F23">
-        <v>0.25</v>
-      </c>
-      <c r="G23">
-        <v>0.25</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.85817763316613715</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>167587</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.25</v>
-      </c>
-      <c r="I24">
-        <v>-0.5</v>
-      </c>
-      <c r="K24">
+      <c r="G25">
         <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>0.80434917329245026</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>167597</v>
-      </c>
-      <c r="F25">
-        <v>0.25</v>
       </c>
       <c r="I25">
         <v>-0.5</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>0.79180155845576095</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>167593</v>
+      </c>
+      <c r="G26">
         <v>-0.25</v>
       </c>
-      <c r="L25">
-        <v>0.14839647882770057</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>167583</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="I26">
+        <v>-0.5</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N26" s="3">
         <v>0.25</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>2.25</v>
-      </c>
-      <c r="L26">
-        <v>0.31879378405615333</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.19328297532662397</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>167588</v>
+        <v>167592</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="I27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
         <v>0.5</v>
       </c>
-      <c r="K27">
-        <v>1.5</v>
-      </c>
-      <c r="L27">
-        <v>0.49377607620939268</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>-0.25</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="R27">
+        <v>0.20559249911376332</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>167585</v>
-      </c>
-      <c r="E28">
-        <v>-0.25</v>
+        <v>167591</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
         <v>0.25</v>
       </c>
-      <c r="I28">
+      <c r="J28" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="P28" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>0.72856152213538683</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>167588</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.5009999999999994</v>
+      </c>
+      <c r="R29">
+        <v>0.49377607620939268</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>167587</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.25</v>
+      </c>
+      <c r="I30">
         <v>-0.5</v>
       </c>
-      <c r="K28">
+      <c r="J30" s="2"/>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q30">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>0.80434917329245026</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>167586</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <v>0.25</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="R31">
+        <v>0.85817763316613715</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>167585</v>
+      </c>
+      <c r="E32">
         <v>-0.25</v>
       </c>
-      <c r="L28">
+      <c r="F32">
+        <v>0.25</v>
+      </c>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+      <c r="I32">
+        <v>-0.5</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.25</v>
+      </c>
+      <c r="R32">
         <v>0.17444416160211584</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>167594</v>
-      </c>
-      <c r="F29">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>167584</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>-0.25</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="1">
         <v>0.5</v>
       </c>
-      <c r="G29">
-        <v>0.75</v>
-      </c>
-      <c r="I29">
-        <v>-0.5</v>
-      </c>
-      <c r="K29">
-        <v>0.75</v>
-      </c>
-      <c r="L29">
-        <v>0.79180155845576095</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>167584</v>
-      </c>
-      <c r="F30">
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.19045152119442554</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>167583</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="P34" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.25</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>5.5</v>
+      </c>
+      <c r="R34">
+        <v>0.31879378405615333</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>164025</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>-0.25</v>
-      </c>
-      <c r="H30">
-        <v>0.25</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0.19045152119442554</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>167592</v>
-      </c>
-      <c r="E31">
-        <v>0.25</v>
-      </c>
-      <c r="F31">
-        <v>0.5</v>
-      </c>
-      <c r="G31">
-        <v>-0.25</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>0.20559249911376332</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>167596</v>
-      </c>
-      <c r="F32">
-        <v>-0.25</v>
-      </c>
-      <c r="G32">
-        <v>0.5</v>
-      </c>
-      <c r="K32">
-        <v>0.25</v>
-      </c>
-      <c r="L32">
-        <v>0.50218804375970238</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>164025</v>
-      </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="G33">
-        <v>0.5</v>
-      </c>
-      <c r="I33">
-        <v>0.5</v>
-      </c>
-      <c r="K33">
-        <v>1.5</v>
-      </c>
-      <c r="L33">
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="R35">
         <v>0.94449333451469308</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>167591</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>0.25</v>
-      </c>
-      <c r="K34">
-        <v>0.75</v>
-      </c>
-      <c r="L34">
-        <v>0.72856152213538683</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>167593</v>
-      </c>
-      <c r="G35">
-        <v>-0.25</v>
-      </c>
-      <c r="I35">
-        <v>-0.5</v>
-      </c>
-      <c r="K35">
-        <v>-0.75</v>
-      </c>
-      <c r="L35">
-        <v>0.19328297532662397</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DCF0E-E70E-49E4-9143-CB305BB70134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58806CA4-3E55-4F63-945B-F19ED120D3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4944" yWindow="4668" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12384" yWindow="5712" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>22.10.2020</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Obecność</t>
   </si>
   <si>
-    <t>Aktywność</t>
-  </si>
-  <si>
     <t>Binarne</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Kolokwium 1</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
@@ -191,38 +194,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -290,6 +285,24 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -316,7 +329,7 @@
     <tableColumn id="9" xr3:uid="{A21C4967-087F-49C7-B08A-509FB8AE93D3}" name="26.11.2020"/>
     <tableColumn id="10" xr3:uid="{EB9A9C79-39ED-487B-948C-753EDCF0C75C}" name="03.12.2020"/>
     <tableColumn id="11" xr3:uid="{5AC5F0DC-1DB9-4FB4-B230-F0BDA23A410A}" name="10.12.2020"/>
-    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="9"/>
     <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021"/>
     <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021"/>
     <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021"/>
@@ -327,12 +340,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:R35" totalsRowShown="0">
-  <autoFilter ref="C21:R35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:R35">
-    <sortCondition descending="1" ref="C21:C35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:T35" totalsRowShown="0">
+  <autoFilter ref="C21:T35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:S35">
+    <sortCondition ref="C21:C35"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="18">
     <tableColumn id="3" xr3:uid="{E402A8D2-7795-457E-9267-4066EA0DEFFB}" name="Indeks"/>
     <tableColumn id="4" xr3:uid="{90814A58-C236-4DEE-8770-7C08AE1D1C07}" name="Binarne"/>
     <tableColumn id="5" xr3:uid="{942382C9-CE0F-4C8F-BC39-8B7D427E1AE6}" name="Schematy Blokowe"/>
@@ -341,6 +354,7 @@
     <tableColumn id="8" xr3:uid="{44FCB6FC-11F2-4E6E-B7F3-E055046ACC7C}" name="CPP 4"/>
     <tableColumn id="9" xr3:uid="{14A346B0-3F1B-4B9A-9D67-D9537BFC0C8F}" name="CPP 5"/>
     <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{1F10BC90-30F9-455A-8810-84A132661DE5}" name="IP"/>
     <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="7"/>
     <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="6"/>
     <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="5"/>
@@ -349,10 +363,13 @@
     <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
+    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R35"/>
+  <dimension ref="C3:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,22 +711,22 @@
         <v>167583</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
@@ -717,22 +734,22 @@
         <v>167584</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
@@ -740,22 +757,22 @@
         <v>167585</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
@@ -763,22 +780,22 @@
         <v>167586</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
@@ -786,22 +803,22 @@
         <v>167587</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
@@ -809,22 +826,22 @@
         <v>167588</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
@@ -832,22 +849,22 @@
         <v>167591</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
@@ -855,22 +872,22 @@
         <v>167592</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
@@ -878,16 +895,16 @@
         <v>164025</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
@@ -895,19 +912,19 @@
         <v>167593</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
@@ -915,22 +932,22 @@
         <v>167594</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
@@ -938,664 +955,768 @@
         <v>167595</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>167596</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>167597</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="S21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="T21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22">
-        <v>167597</v>
+        <v>164025</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
       </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
       </c>
       <c r="I22">
-        <v>-0.5</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.75</v>
+      </c>
+      <c r="S22">
+        <v>0.94449333451469308</v>
+      </c>
+      <c r="T22" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>167583</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.25</v>
+      </c>
+      <c r="R23">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>6.25</v>
+      </c>
+      <c r="S23">
+        <v>0.31879378405615333</v>
+      </c>
+      <c r="T23" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>167584</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-0.25</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <v>1.0009999999999999</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="Q22">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>2.7509999999999999</v>
-      </c>
-      <c r="R22">
-        <v>0.14839647882770057</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>167596</v>
-      </c>
-      <c r="F23">
+      <c r="R24">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="S24">
+        <v>0.19045152119442554</v>
+      </c>
+      <c r="T24" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>167585</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E25">
         <v>-0.25</v>
       </c>
-      <c r="G23">
+      <c r="F25">
+        <v>0.25</v>
+      </c>
+      <c r="G25">
+        <v>0.25</v>
+      </c>
+      <c r="I25">
+        <v>-0.5</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="R25">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="S25">
+        <v>0.17444416160211584</v>
+      </c>
+      <c r="T25" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>167586</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E26">
         <v>0.5</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.25</v>
+      </c>
+      <c r="R26">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.75</v>
+      </c>
+      <c r="S26">
+        <v>0.85817763316613715</v>
+      </c>
+      <c r="T26" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>167587</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
+      </c>
+      <c r="I27">
+        <v>-0.5</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.25</v>
+      </c>
+      <c r="R27">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>3.25</v>
+      </c>
+      <c r="S27">
+        <v>0.80434917329245026</v>
+      </c>
+      <c r="T27" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>167588</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="R28">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.7509999999999994</v>
+      </c>
+      <c r="S28">
+        <v>0.49377607620939268</v>
+      </c>
+      <c r="T28" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>167591</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" s="3">
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3</v>
       </c>
-      <c r="Q23">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R29">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>5.25</v>
+      </c>
+      <c r="S29">
+        <v>0.72856152213538683</v>
+      </c>
+      <c r="T29" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>167592</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>-0.25</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="R30">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="S30">
+        <v>0.20559249911376332</v>
+      </c>
+      <c r="T30" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>167593</v>
+      </c>
+      <c r="G31">
+        <v>-0.25</v>
+      </c>
+      <c r="I31">
+        <v>-0.5</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="R31">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.19328297532662397</v>
+      </c>
+      <c r="T31" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>167594</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.75</v>
+      </c>
+      <c r="I32">
+        <v>-0.5</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
         <v>3.25</v>
       </c>
-      <c r="R23">
-        <v>0.50218804375970238</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C24">
+      <c r="S32">
+        <v>0.79180155845576095</v>
+      </c>
+      <c r="T32" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C33">
         <v>167595</v>
       </c>
-      <c r="F24">
+      <c r="F33">
         <v>-0.25</v>
       </c>
-      <c r="G24">
+      <c r="G33">
         <v>-0.25</v>
       </c>
-      <c r="H24">
+      <c r="H33">
         <v>-0.5</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3">
         <v>1.25</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q33" s="3">
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2.25</v>
       </c>
-      <c r="Q24">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R33">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
         <v>1.25</v>
       </c>
-      <c r="R24">
+      <c r="S33">
         <v>0.50270614977512906</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>167594</v>
-      </c>
-      <c r="F25">
+      <c r="T33" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>167596</v>
+      </c>
+      <c r="F34">
+        <v>-0.25</v>
+      </c>
+      <c r="G34">
         <v>0.5</v>
       </c>
-      <c r="G25">
-        <v>0.75</v>
-      </c>
-      <c r="I25">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
         <v>-0.5</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3">
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>2.75</v>
+      </c>
+      <c r="S34">
+        <v>0.50218804375970238</v>
+      </c>
+      <c r="T34" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
-      <c r="Q25">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>2.75</v>
-      </c>
-      <c r="R25">
-        <v>0.79180155845576095</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>167593</v>
-      </c>
-      <c r="G26">
-        <v>-0.25</v>
-      </c>
-      <c r="I26">
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>167597</v>
+      </c>
+      <c r="F35">
+        <v>0.25</v>
+      </c>
+      <c r="I35">
         <v>-0.5</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <v>1.0009999999999999</v>
       </c>
-      <c r="N26" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="Q26">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="R26">
-        <v>0.19328297532662397</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>167592</v>
-      </c>
-      <c r="E27">
-        <v>0.25</v>
-      </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
-      <c r="G27">
-        <v>-0.25</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="Q27">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.3010000000000002</v>
-      </c>
-      <c r="R27">
-        <v>0.20559249911376332</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>167591</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0.25</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="P28" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>5</v>
-      </c>
-      <c r="R28">
-        <v>0.72856152213538683</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>167588</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="Q29">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.5009999999999994</v>
-      </c>
-      <c r="R29">
-        <v>0.49377607620939268</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>167587</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.25</v>
-      </c>
-      <c r="I30">
-        <v>-0.5</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>2.25</v>
-      </c>
-      <c r="Q30">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3</v>
-      </c>
-      <c r="R30">
-        <v>0.80434917329245026</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>167586</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0.25</v>
-      </c>
-      <c r="G31">
-        <v>0.25</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>2.25</v>
-      </c>
-      <c r="Q31">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.5</v>
-      </c>
-      <c r="R31">
-        <v>0.85817763316613715</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>167585</v>
-      </c>
-      <c r="E32">
-        <v>-0.25</v>
-      </c>
-      <c r="F32">
-        <v>0.25</v>
-      </c>
-      <c r="G32">
-        <v>0.25</v>
-      </c>
-      <c r="I32">
-        <v>-0.5</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="P32" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3.5</v>
-      </c>
-      <c r="Q32">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.25</v>
-      </c>
-      <c r="R32">
-        <v>0.17444416160211584</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>167584</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>-0.25</v>
-      </c>
-      <c r="H33">
-        <v>0.25</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="Q33">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="R33">
-        <v>0.19045152119442554</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>167583</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0.25</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="P34" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3.25</v>
-      </c>
-      <c r="Q34">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>5.5</v>
-      </c>
-      <c r="R34">
-        <v>0.31879378405615333</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>164025</v>
-      </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>0.5</v>
-      </c>
-      <c r="I35">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>1</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4">
-        <v>1</v>
-      </c>
-      <c r="P35" s="3">
-        <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[Zadanie domowe]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.5</v>
-      </c>
       <c r="R35">
-        <v>0.94449333451469308</v>
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="S35">
+        <v>0.14839647882770057</v>
+      </c>
+      <c r="T35" s="6">
+        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58806CA4-3E55-4F63-945B-F19ED120D3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A0E49-13AA-42AE-BAB3-E56D0070E44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="5712" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="5376" windowWidth="13824" windowHeight="7284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -209,15 +209,15 @@
   <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -342,7 +342,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:T35" totalsRowShown="0">
   <autoFilter ref="C21:T35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:S35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:T35">
     <sortCondition ref="C21:C35"/>
   </sortState>
   <tableColumns count="18">
@@ -363,11 +363,11 @@
     <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
-    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1091,9 @@
       <c r="I22">
         <v>0.5</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4">
         <v>1</v>
@@ -1112,14 +1114,14 @@
       </c>
       <c r="R22">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="S22">
         <v>0.94449333451469308</v>
       </c>
       <c r="T22" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.3">
@@ -1236,7 +1238,9 @@
       <c r="I25">
         <v>-0.5</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>1.5</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4">
         <v>1</v>
@@ -1259,14 +1263,14 @@
       </c>
       <c r="R25">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>0.17444416160211584</v>
       </c>
       <c r="T25" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.3">
@@ -1380,7 +1384,9 @@
       <c r="I28">
         <v>0.5</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="3">
         <v>1</v>
@@ -1401,14 +1407,14 @@
       </c>
       <c r="R28">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.7509999999999994</v>
+        <v>5.7509999999999994</v>
       </c>
       <c r="S28">
         <v>0.49377607620939268</v>
       </c>
       <c r="T28" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.3">
@@ -1558,7 +1564,9 @@
       <c r="I32">
         <v>-0.5</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>0.25</v>
+      </c>
       <c r="K32" s="2">
         <v>0.5</v>
       </c>
@@ -1583,7 +1591,7 @@
       </c>
       <c r="R32">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="S32">
         <v>0.79180155845576095</v>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A0E49-13AA-42AE-BAB3-E56D0070E44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F859D9-1703-47A6-83E8-42FA2E777F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="5376" windowWidth="13824" windowHeight="7284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>22.10.2020</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>IP</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>WebApp</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,11 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -218,6 +225,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -329,7 +360,7 @@
     <tableColumn id="9" xr3:uid="{A21C4967-087F-49C7-B08A-509FB8AE93D3}" name="26.11.2020"/>
     <tableColumn id="10" xr3:uid="{EB9A9C79-39ED-487B-948C-753EDCF0C75C}" name="03.12.2020"/>
     <tableColumn id="11" xr3:uid="{5AC5F0DC-1DB9-4FB4-B230-F0BDA23A410A}" name="10.12.2020"/>
-    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="11"/>
     <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021"/>
     <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021"/>
     <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021"/>
@@ -340,12 +371,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:T35" totalsRowShown="0">
-  <autoFilter ref="C21:T35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:T35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:V35" totalsRowShown="0">
+  <autoFilter ref="C21:V35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:V35">
     <sortCondition ref="C21:C35"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="20">
     <tableColumn id="3" xr3:uid="{E402A8D2-7795-457E-9267-4066EA0DEFFB}" name="Indeks"/>
     <tableColumn id="4" xr3:uid="{90814A58-C236-4DEE-8770-7C08AE1D1C07}" name="Binarne"/>
     <tableColumn id="5" xr3:uid="{942382C9-CE0F-4C8F-BC39-8B7D427E1AE6}" name="Schematy Blokowe"/>
@@ -353,18 +384,20 @@
     <tableColumn id="7" xr3:uid="{E59272A2-165F-403C-985C-B8F40612CB3B}" name="CPP 3"/>
     <tableColumn id="8" xr3:uid="{44FCB6FC-11F2-4E6E-B7F3-E055046ACC7C}" name="CPP 4"/>
     <tableColumn id="9" xr3:uid="{14A346B0-3F1B-4B9A-9D67-D9537BFC0C8F}" name="CPP 5"/>
-    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="10"/>
     <tableColumn id="18" xr3:uid="{1F10BC90-30F9-455A-8810-84A132661DE5}" name="IP"/>
-    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="19" xr3:uid="{A237CE39-4CCD-4CF9-8750-BFFAA6C95F7D}" name="SO" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{092ABD78-74CE-409E-8034-E34731AF9E2E}" name="WebApp" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
     <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="0">
@@ -638,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:T35"/>
+  <dimension ref="C3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +1006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>167596</v>
       </c>
@@ -996,7 +1029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>167597</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -1065,17 +1098,23 @@
       <c r="Q21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
         <v>17</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>24</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>164025</v>
       </c>
@@ -1112,19 +1151,21 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3</v>
       </c>
-      <c r="R22">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
         <v>5.25</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>0.94449333451469308</v>
       </c>
-      <c r="T22" s="6">
+      <c r="V22" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>167583</v>
       </c>
@@ -1160,19 +1201,21 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.25</v>
       </c>
-      <c r="R23">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
         <v>6.25</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>0.31879378405615333</v>
       </c>
-      <c r="T23" s="6">
+      <c r="V23" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>167584</v>
       </c>
@@ -1207,19 +1250,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="R24">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.7509999999999999</v>
-      </c>
-      <c r="S24">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T24">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>4.0009999999999994</v>
+      </c>
+      <c r="U24">
         <v>0.19045152119442554</v>
       </c>
-      <c r="T24" s="6">
+      <c r="V24" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>167585</v>
       </c>
@@ -1261,19 +1308,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.5</v>
       </c>
-      <c r="R25">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>5</v>
-      </c>
-      <c r="S25">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>5.5</v>
+      </c>
+      <c r="U25">
         <v>0.17444416160211584</v>
       </c>
-      <c r="T25" s="6">
+      <c r="V25" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>167586</v>
       </c>
@@ -1312,19 +1363,25 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2.25</v>
       </c>
-      <c r="R26">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.75</v>
-      </c>
-      <c r="S26">
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T26">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>5.65</v>
+      </c>
+      <c r="U26">
         <v>0.85817763316613715</v>
       </c>
-      <c r="T26" s="6">
+      <c r="V26" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>167587</v>
       </c>
@@ -1359,19 +1416,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2.25</v>
       </c>
-      <c r="R27">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.25</v>
-      </c>
-      <c r="S27">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T27">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="U27">
         <v>0.80434917329245026</v>
       </c>
-      <c r="T27" s="6">
+      <c r="V27" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>167588</v>
       </c>
@@ -1405,19 +1466,21 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="R28">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
         <v>5.7509999999999994</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>0.49377607620939268</v>
       </c>
-      <c r="T28" s="6">
+      <c r="V28" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>167591</v>
       </c>
@@ -1451,19 +1514,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3</v>
       </c>
-      <c r="R29">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>5.25</v>
-      </c>
-      <c r="S29">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T29">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>5.5</v>
+      </c>
+      <c r="U29">
         <v>0.72856152213538683</v>
       </c>
-      <c r="T29" s="6">
+      <c r="V29" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>167592</v>
       </c>
@@ -1498,19 +1565,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="R30">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>4.5510000000000002</v>
-      </c>
-      <c r="S30">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T30">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>5.0510000000000002</v>
+      </c>
+      <c r="U30">
         <v>0.20559249911376332</v>
       </c>
-      <c r="T30" s="6">
+      <c r="V30" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>167593</v>
       </c>
@@ -1539,19 +1610,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2.2509999999999999</v>
       </c>
-      <c r="R31">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="S31">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="U31">
         <v>0.19328297532662397</v>
       </c>
-      <c r="T31" s="6">
+      <c r="V31" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>167594</v>
       </c>
@@ -1589,19 +1664,23 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2</v>
       </c>
-      <c r="R32">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>3.5</v>
-      </c>
-      <c r="S32">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T32">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U32">
         <v>0.79180155845576095</v>
       </c>
-      <c r="T32" s="6">
+      <c r="V32" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>167595</v>
       </c>
@@ -1633,19 +1712,21 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>2.25</v>
       </c>
-      <c r="R33">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
         <v>1.25</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>0.50270614977512906</v>
       </c>
-      <c r="T33" s="6">
+      <c r="V33" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>167596</v>
       </c>
@@ -1676,19 +1757,21 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3</v>
       </c>
-      <c r="R34">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
         <v>2.75</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>0.50218804375970238</v>
       </c>
-      <c r="T34" s="6">
+      <c r="V34" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>167597</v>
       </c>
@@ -1715,14 +1798,18 @@
         <f>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</f>
         <v>3.0009999999999999</v>
       </c>
-      <c r="R35">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]</f>
-        <v>2.7509999999999999</v>
-      </c>
-      <c r="S35">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T35">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="U35">
         <v>0.14839647882770057</v>
       </c>
-      <c r="T35" s="6">
+      <c r="V35" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F859D9-1703-47A6-83E8-42FA2E777F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111AF6E6-25AA-472B-A911-27D52B828F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <dimension ref="C3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="S23" sqref="S22:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,17 +1202,19 @@
         <v>3.25</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="2">
+        <v>0.9</v>
+      </c>
       <c r="T23">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>6.25</v>
+        <v>7.15</v>
       </c>
       <c r="U23">
         <v>0.31879378405615333</v>
       </c>
       <c r="V23" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.3">
@@ -1713,10 +1715,12 @@
         <v>2.25</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="1">
+        <v>0.8</v>
+      </c>
       <c r="T33">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>1.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="U33">
         <v>0.50270614977512906</v>
@@ -1758,10 +1762,12 @@
         <v>3</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="S34" s="2">
+        <v>0.1</v>
+      </c>
       <c r="T34">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="U34">
         <v>0.50218804375970238</v>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111AF6E6-25AA-472B-A911-27D52B828F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78413973-AC1F-4487-A739-C3351B566B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="3888" windowWidth="23040" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <dimension ref="C3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S23" sqref="S22:S35"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,10 +1152,12 @@
         <v>3</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="S22" s="2">
+        <v>0.1</v>
+      </c>
       <c r="T22">
         <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.25</v>
+        <v>5.35</v>
       </c>
       <c r="U22">
         <v>0.94449333451469308</v>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78413973-AC1F-4487-A739-C3351B566B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB046A-1645-4A55-80B7-FD3535EC619B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3888" windowWidth="23040" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="42">
   <si>
     <t>22.10.2020</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t>WebApp</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.1 ip</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.2 sql</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.3 http</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.4 threads</t>
+  </si>
+  <si>
+    <t>Kolokwium 2.5 monty</t>
+  </si>
+  <si>
+    <t>Kolokwium 2</t>
   </si>
 </sst>
 </file>
@@ -179,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,11 +217,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,11 +241,144 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -222,9 +387,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -360,23 +522,23 @@
     <tableColumn id="9" xr3:uid="{A21C4967-087F-49C7-B08A-509FB8AE93D3}" name="26.11.2020"/>
     <tableColumn id="10" xr3:uid="{EB9A9C79-39ED-487B-948C-753EDCF0C75C}" name="03.12.2020"/>
     <tableColumn id="11" xr3:uid="{5AC5F0DC-1DB9-4FB4-B230-F0BDA23A410A}" name="10.12.2020"/>
-    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021"/>
-    <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021"/>
-    <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021"/>
-    <tableColumn id="16" xr3:uid="{6CD8628A-91B8-464F-92B9-6D31B8A2CFCF}" name="28.01.2021"/>
+    <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{6CD8628A-91B8-464F-92B9-6D31B8A2CFCF}" name="28.01.2021" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:V35" totalsRowShown="0">
-  <autoFilter ref="C21:V35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:V35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CE518877-A180-4178-A04F-4C070500A134}" name="Tabela12" displayName="Tabela12" ref="C21:AC35" totalsRowShown="0">
+  <autoFilter ref="C21:AC35" xr:uid="{B41FEE7C-1A4F-4319-AC59-45341DB5AF30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C22:AC35">
     <sortCondition ref="C21:C35"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="27">
     <tableColumn id="3" xr3:uid="{E402A8D2-7795-457E-9267-4066EA0DEFFB}" name="Indeks"/>
     <tableColumn id="4" xr3:uid="{90814A58-C236-4DEE-8770-7C08AE1D1C07}" name="Binarne"/>
     <tableColumn id="5" xr3:uid="{942382C9-CE0F-4C8F-BC39-8B7D427E1AE6}" name="Schematy Blokowe"/>
@@ -384,23 +546,32 @@
     <tableColumn id="7" xr3:uid="{E59272A2-165F-403C-985C-B8F40612CB3B}" name="CPP 3"/>
     <tableColumn id="8" xr3:uid="{44FCB6FC-11F2-4E6E-B7F3-E055046ACC7C}" name="CPP 4"/>
     <tableColumn id="9" xr3:uid="{14A346B0-3F1B-4B9A-9D67-D9537BFC0C8F}" name="CPP 5"/>
-    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="21"/>
     <tableColumn id="18" xr3:uid="{1F10BC90-30F9-455A-8810-84A132661DE5}" name="IP"/>
-    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="15">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A237CE39-4CCD-4CF9-8750-BFFAA6C95F7D}" name="SO" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{092ABD78-74CE-409E-8034-E34731AF9E2E}" name="WebApp" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{A237CE39-4CCD-4CF9-8750-BFFAA6C95F7D}" name="SO" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{092ABD78-74CE-409E-8034-E34731AF9E2E}" name="WebApp" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{3F37EB7E-2160-4743-B16C-90597D2838DB}" name="SQL" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{7BB32794-28DB-48D3-96DE-5BE7EDB4C246}" name="Kolokwium 2.1 ip" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{ECB21EAD-B73E-47F9-8D39-6710F556D8F4}" name="Kolokwium 2.2 sql" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{12B60A2D-3C62-4125-B51F-159A3E9680F3}" name="Kolokwium 2.3 http" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{26D26100-877F-429A-BE77-FF833917CFEF}" name="Kolokwium 2.4 threads" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{5A7237C8-878C-4599-95A2-A3F2B136DB93}" name="Kolokwium 2.5 monty" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{992AD64B-733A-4ED5-8AA0-0FBD7849421C}" name="Kolokwium 2" dataDxfId="5">
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="4">
+      <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
-    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="12">
       <calculatedColumnFormula>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -671,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:V35"/>
+  <dimension ref="C3:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,6 +932,18 @@
       <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6">
@@ -784,6 +967,18 @@
       <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C7">
@@ -807,6 +1002,18 @@
       <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8">
@@ -830,6 +1037,18 @@
       <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -853,6 +1072,18 @@
       <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10">
@@ -876,6 +1107,16 @@
       <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11">
@@ -899,6 +1140,18 @@
       <c r="L11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12">
@@ -922,6 +1175,18 @@
       <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13">
@@ -939,6 +1204,16 @@
       <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14">
@@ -959,6 +1234,18 @@
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15">
@@ -982,6 +1269,18 @@
       <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16">
@@ -1005,8 +1304,20 @@
       <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>167596</v>
       </c>
@@ -1028,8 +1339,18 @@
       <c r="L17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>167597</v>
       </c>
@@ -1051,8 +1372,20 @@
       <c r="L18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -1104,17 +1437,38 @@
       <c r="S21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s">
         <v>17</v>
       </c>
-      <c r="U21" t="s">
+      <c r="AB21" t="s">
         <v>24</v>
       </c>
-      <c r="V21" t="s">
+      <c r="AC21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>164025</v>
       </c>
@@ -1155,19 +1509,35 @@
       <c r="S22" s="2">
         <v>0.1</v>
       </c>
-      <c r="T22">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.35</v>
-      </c>
-      <c r="U22">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>6.35</v>
+      </c>
+      <c r="AB22">
         <v>0.94449333451469308</v>
       </c>
-      <c r="V22" s="6">
+      <c r="AC22" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>167583</v>
       </c>
@@ -1207,19 +1577,41 @@
       <c r="S23" s="2">
         <v>0.9</v>
       </c>
-      <c r="T23">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>7.15</v>
-      </c>
-      <c r="U23">
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>10.15</v>
+      </c>
+      <c r="AB23">
         <v>0.31879378405615333</v>
       </c>
-      <c r="V23" s="6">
+      <c r="AC23" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>167584</v>
       </c>
@@ -1258,19 +1650,35 @@
       <c r="S24" s="1">
         <v>0.25</v>
       </c>
-      <c r="T24">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>4.0009999999999994</v>
-      </c>
-      <c r="U24">
+      <c r="T24" s="1"/>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>5.0009999999999994</v>
+      </c>
+      <c r="AB24">
         <v>0.19045152119442554</v>
       </c>
-      <c r="V24" s="6">
+      <c r="AC24" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>167585</v>
       </c>
@@ -1316,19 +1724,39 @@
       <c r="S25" s="2">
         <v>0.5</v>
       </c>
-      <c r="T25">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.5</v>
-      </c>
-      <c r="U25">
+      <c r="T25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA25">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>7.8</v>
+      </c>
+      <c r="AB25">
         <v>0.17444416160211584</v>
       </c>
-      <c r="V25" s="6">
+      <c r="AC25" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>167586</v>
       </c>
@@ -1373,19 +1801,37 @@
       <c r="S26" s="1">
         <v>0.9</v>
       </c>
-      <c r="T26">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.65</v>
-      </c>
-      <c r="U26">
+      <c r="T26" s="1"/>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA26">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>7.15</v>
+      </c>
+      <c r="AB26">
         <v>0.85817763316613715</v>
       </c>
-      <c r="V26" s="6">
+      <c r="AC26" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>167587</v>
       </c>
@@ -1424,19 +1870,39 @@
       <c r="S27" s="2">
         <v>0.9</v>
       </c>
-      <c r="T27">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="U27">
+      <c r="T27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA27">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>6.45</v>
+      </c>
+      <c r="AB27">
         <v>0.80434917329245026</v>
       </c>
-      <c r="V27" s="6">
+      <c r="AC27" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>167588</v>
       </c>
@@ -1472,19 +1938,37 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.7509999999999994</v>
-      </c>
-      <c r="U28">
+      <c r="T28" s="1"/>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>6.7509999999999994</v>
+      </c>
+      <c r="AB28">
         <v>0.49377607620939268</v>
       </c>
-      <c r="V28" s="6">
+      <c r="AC28" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>167591</v>
       </c>
@@ -1522,19 +2006,39 @@
       <c r="S29" s="2">
         <v>0.25</v>
       </c>
-      <c r="T29">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.5</v>
-      </c>
-      <c r="U29">
+      <c r="T29" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>7.6</v>
+      </c>
+      <c r="AB29">
         <v>0.72856152213538683</v>
       </c>
-      <c r="V29" s="6">
+      <c r="AC29" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>167592</v>
       </c>
@@ -1573,19 +2077,39 @@
       <c r="S30" s="1">
         <v>0.5</v>
       </c>
-      <c r="T30">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>5.0510000000000002</v>
-      </c>
-      <c r="U30">
+      <c r="T30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA30">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>7.4510000000000005</v>
+      </c>
+      <c r="AB30">
         <v>0.20559249911376332</v>
       </c>
-      <c r="V30" s="6">
+      <c r="AC30" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>167593</v>
       </c>
@@ -1618,19 +2142,39 @@
       <c r="S31" s="1">
         <v>0.5</v>
       </c>
-      <c r="T31">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>2.0009999999999999</v>
-      </c>
-      <c r="U31">
+      <c r="T31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="AB31">
         <v>0.19328297532662397</v>
       </c>
-      <c r="V31" s="6">
+      <c r="AC31" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>167594</v>
       </c>
@@ -1672,19 +2216,39 @@
       <c r="S32" s="2">
         <v>0.9</v>
       </c>
-      <c r="T32">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U32">
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>6.9</v>
+      </c>
+      <c r="AB32">
         <v>0.79180155845576095</v>
       </c>
-      <c r="V32" s="6">
+      <c r="AC32" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>167595</v>
       </c>
@@ -1720,19 +2284,39 @@
       <c r="S33" s="1">
         <v>0.8</v>
       </c>
-      <c r="T33">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="U33">
+      <c r="T33" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W33" s="1">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA33">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>4.45</v>
+      </c>
+      <c r="AB33">
         <v>0.50270614977512906</v>
       </c>
-      <c r="V33" s="6">
+      <c r="AC33" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>167596</v>
       </c>
@@ -1767,19 +2351,39 @@
       <c r="S34" s="2">
         <v>0.1</v>
       </c>
-      <c r="T34">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>2.85</v>
-      </c>
-      <c r="U34">
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="4">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>5.35</v>
+      </c>
+      <c r="AB34">
         <v>0.50218804375970238</v>
       </c>
-      <c r="V34" s="6">
+      <c r="AC34" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>167597</v>
       </c>
@@ -1810,16 +2414,36 @@
       <c r="S35" s="1">
         <v>0.9</v>
       </c>
-      <c r="T35">
-        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[WebApp]])</f>
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="U35">
+      <c r="T35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="3">
+        <f>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="AA35">
+        <f>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</f>
+        <v>5.9510000000000005</v>
+      </c>
+      <c r="AB35">
         <v>0.14839647882770057</v>
       </c>
-      <c r="V35" s="6">
+      <c r="AC35" s="6">
         <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB046A-1645-4A55-80B7-FD3535EC619B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F212EAC-C39A-441C-914B-55E06F684776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +179,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +205,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,10 +242,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -242,58 +256,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -378,15 +355,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -479,6 +447,54 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -523,10 +539,10 @@
     <tableColumn id="10" xr3:uid="{EB9A9C79-39ED-487B-948C-753EDCF0C75C}" name="03.12.2020"/>
     <tableColumn id="11" xr3:uid="{5AC5F0DC-1DB9-4FB4-B230-F0BDA23A410A}" name="10.12.2020"/>
     <tableColumn id="12" xr3:uid="{045E4D82-83F8-4B44-94AD-86987B58F29A}" name="17.12.2020" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{6CD8628A-91B8-464F-92B9-6D31B8A2CFCF}" name="28.01.2021" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{EB06CDE4-451E-4C4F-A063-79D280C7A196}" name="07.01.2021" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{63B4C5C3-46AF-403D-B3CB-DDF4A4C28CA4}" name="14.01.2021" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{3E8EFF3E-1B91-4E23-A3EF-35D9F605191D}" name="21.01.2021" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{6CD8628A-91B8-464F-92B9-6D31B8A2CFCF}" name="28.01.2021" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,32 +562,32 @@
     <tableColumn id="7" xr3:uid="{E59272A2-165F-403C-985C-B8F40612CB3B}" name="CPP 3"/>
     <tableColumn id="8" xr3:uid="{44FCB6FC-11F2-4E6E-B7F3-E055046ACC7C}" name="CPP 4"/>
     <tableColumn id="9" xr3:uid="{14A346B0-3F1B-4B9A-9D67-D9537BFC0C8F}" name="CPP 5"/>
-    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{493E9507-4D25-4C4F-A428-03BA8861DCF4}" name="Zadanie domowe" dataDxfId="17"/>
     <tableColumn id="18" xr3:uid="{1F10BC90-30F9-455A-8810-84A132661DE5}" name="IP"/>
-    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{5D30D184-7C27-437A-B92A-BE7FAD823688}" name="Kolokwium 1.1" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{7BB21E5A-ABA1-4034-B0A6-E1D8C0E7143B}" name="Kolokwium 1.2" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{2A33FBD0-C9F3-44EE-988B-864BEE57123A}" name="Kolokwium 1.3" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{E5581CD3-BA1E-4149-A98C-19307059D3EC}" name="Kolokwium 1.4" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{4C585449-1746-461A-9D7F-EF0C3E551B88}" name="Kolokwium 1.5" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{58D4B3B2-3D55-4394-85F1-FD6268236FD1}" name="Kolokwium 1" dataDxfId="11">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 1.1]:[Kolokwium 1.5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A237CE39-4CCD-4CF9-8750-BFFAA6C95F7D}" name="SO" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{092ABD78-74CE-409E-8034-E34731AF9E2E}" name="WebApp" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{3F37EB7E-2160-4743-B16C-90597D2838DB}" name="SQL" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{7BB32794-28DB-48D3-96DE-5BE7EDB4C246}" name="Kolokwium 2.1 ip" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{ECB21EAD-B73E-47F9-8D39-6710F556D8F4}" name="Kolokwium 2.2 sql" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{12B60A2D-3C62-4125-B51F-159A3E9680F3}" name="Kolokwium 2.3 http" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{26D26100-877F-429A-BE77-FF833917CFEF}" name="Kolokwium 2.4 threads" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{5A7237C8-878C-4599-95A2-A3F2B136DB93}" name="Kolokwium 2.5 monty" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{992AD64B-733A-4ED5-8AA0-0FBD7849421C}" name="Kolokwium 2" dataDxfId="5">
+    <tableColumn id="19" xr3:uid="{A237CE39-4CCD-4CF9-8750-BFFAA6C95F7D}" name="SO" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{092ABD78-74CE-409E-8034-E34731AF9E2E}" name="WebApp" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{3F37EB7E-2160-4743-B16C-90597D2838DB}" name="SQL" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{7BB32794-28DB-48D3-96DE-5BE7EDB4C246}" name="Kolokwium 2.1 ip" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{ECB21EAD-B73E-47F9-8D39-6710F556D8F4}" name="Kolokwium 2.2 sql" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{12B60A2D-3C62-4125-B51F-159A3E9680F3}" name="Kolokwium 2.3 http" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{26D26100-877F-429A-BE77-FF833917CFEF}" name="Kolokwium 2.4 threads" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{5A7237C8-878C-4599-95A2-A3F2B136DB93}" name="Kolokwium 2.5 monty" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{992AD64B-733A-4ED5-8AA0-0FBD7849421C}" name="Kolokwium 2" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Kolokwium 2.1 ip]:[Kolokwium 2.5 monty]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{E457F108-05D8-4058-9820-AB5118772554}" name="Suma" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela12[[#This Row],[Binarne]:[IP]])+Tabela12[[#This Row],[Kolokwium 1]]+SUM(Tabela12[[#This Row],[SO]:[SQL]])+Tabela12[[#This Row],[Kolokwium 2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{45DA7CA5-F131-4C87-84A1-2B5137390146}" name="Random"/>
-    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="12">
+    <tableColumn id="17" xr3:uid="{32F0E843-1447-441D-83F6-BF12EF8348C1}" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -844,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,9 +2185,8 @@
       <c r="AB31">
         <v>0.19328297532662397</v>
       </c>
-      <c r="AC31" s="6">
-        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+      <c r="AC31" s="9">
+        <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.3">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2020_2021 - 1 - winter\InformatykaA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F212EAC-C39A-441C-914B-55E06F684776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603830A-2E15-49A9-B98F-B659C42D3E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
   <dimension ref="C3:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2326,9 +2326,8 @@
       <c r="AB33">
         <v>0.50270614977512906</v>
       </c>
-      <c r="AC33" s="6">
-        <f>IF(Tabela12[[#This Row],[Suma]]&lt;5,2,IF(Tabela12[[#This Row],[Suma]]&lt;6,3, IF(Tabela12[[#This Row],[Suma]]&lt;7,3.5,IF(Tabela12[[#This Row],[Suma]]&lt;8,4,IF(Tabela12[[#This Row],[Suma]]&lt;9,4.5,5)))))</f>
-        <v>2</v>
+      <c r="AC33" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.3">
